--- a/gptdata.xlsx
+++ b/gptdata.xlsx
@@ -8,17 +8,17 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\ChatGPT ML\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EDEF82BB-3DB5-425C-86D5-3E1C9FCF7A77}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ABD3992B-543E-48FE-A4E5-96E40DFE1442}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="12240" tabRatio="762" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="12240" tabRatio="762" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Relevance" sheetId="4" r:id="rId1"/>
     <sheet name="RelevanceTypes" sheetId="8" r:id="rId2"/>
-    <sheet name="Basic" sheetId="1" r:id="rId3"/>
-    <sheet name="Location" sheetId="2" r:id="rId4"/>
-    <sheet name="Colleges" sheetId="3" r:id="rId5"/>
-    <sheet name="Faculty" sheetId="5" r:id="rId6"/>
+    <sheet name="Location" sheetId="2" r:id="rId3"/>
+    <sheet name="Basic" sheetId="1" r:id="rId4"/>
+    <sheet name="Faculty" sheetId="5" r:id="rId5"/>
+    <sheet name="Colleges" sheetId="3" r:id="rId6"/>
     <sheet name="DataSheet" sheetId="7" r:id="rId7"/>
   </sheets>
   <calcPr calcId="162913"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="217" uniqueCount="119">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="214" uniqueCount="117">
   <si>
     <t>Question</t>
   </si>
@@ -81,9 +81,6 @@
     <t>visakhapatnam</t>
   </si>
   <si>
-    <t>Architecture, Civil, Computer Science, Information Technology, Chemical, Electrical, Electronics, Mechanical, Geo Informatics, Marine</t>
-  </si>
-  <si>
     <t>Department</t>
   </si>
   <si>
@@ -297,12 +294,6 @@
     <t>There are $Count departments in $College.</t>
   </si>
   <si>
-    <t>There are $Count faculty members in $Department of $College.</t>
-  </si>
-  <si>
-    <t>$Name is currently working as $Designation in $Department of $College.</t>
-  </si>
-  <si>
     <t>AU Andhra University located</t>
   </si>
   <si>
@@ -321,9 +312,6 @@
     <t>What are they? List them colleges</t>
   </si>
   <si>
-    <t>Departments AU College Engineering</t>
-  </si>
-  <si>
     <t>hi hello hey</t>
   </si>
   <si>
@@ -360,9 +348,6 @@
     <t>faculty list</t>
   </si>
   <si>
-    <t>faculty profile</t>
-  </si>
-  <si>
     <t>College,Department</t>
   </si>
   <si>
@@ -375,9 +360,6 @@
     <t>Following are the departments present in $College.$NL$List</t>
   </si>
   <si>
-    <t>Following are the faculty present in $Department of $College.$NL$List</t>
-  </si>
-  <si>
     <t>who you name your</t>
   </si>
   <si>
@@ -387,7 +369,19 @@
     <t>Professor &amp; Co-ordinator, IQAC, Chairperson, Board of Studies</t>
   </si>
   <si>
-    <t>departments profile details prof faculty college department</t>
+    <t>There are $Count faculty members in $Department department of $College.</t>
+  </si>
+  <si>
+    <t>Following are the faculty present in $Department department of $College.$NL$List</t>
+  </si>
+  <si>
+    <t>$Name is currently working as $Designation in $Department department of $College.</t>
+  </si>
+  <si>
+    <t>faculty profile about</t>
+  </si>
+  <si>
+    <t>departments profile details prof faculty college department about</t>
   </si>
 </sst>
 </file>
@@ -718,8 +712,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DEF7F9EB-044B-432F-A76C-B9394198BD95}">
   <dimension ref="A1:B4"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A10" sqref="A10"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A5" sqref="A5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -738,7 +732,7 @@
     </row>
     <row r="2" spans="1:2" ht="13.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>116</v>
+        <v>110</v>
       </c>
       <c r="B2" t="s">
         <v>2</v>
@@ -754,10 +748,10 @@
     </row>
     <row r="4" spans="1:2" ht="13.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="B4" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
     </row>
   </sheetData>
@@ -792,7 +786,7 @@
         <v>2</v>
       </c>
       <c r="B2" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.3">
@@ -800,7 +794,7 @@
         <v>5</v>
       </c>
       <c r="B3" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.3">
@@ -808,15 +802,15 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="B5" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
   </sheetData>
@@ -825,136 +819,6 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:C10"/>
-  <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A5" sqref="A5:XFD5"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
-  <cols>
-    <col min="1" max="1" width="44.77734375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="9.33203125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="52.77734375" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" t="s">
-        <v>4</v>
-      </c>
-      <c r="C1" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A2" t="s">
-        <v>97</v>
-      </c>
-      <c r="B2" t="s">
-        <v>2</v>
-      </c>
-      <c r="C2" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A3" t="s">
-        <v>115</v>
-      </c>
-      <c r="B3" t="s">
-        <v>2</v>
-      </c>
-      <c r="C3" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A4" t="s">
-        <v>101</v>
-      </c>
-      <c r="B4" t="s">
-        <v>2</v>
-      </c>
-      <c r="C4" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A5" t="s">
-        <v>90</v>
-      </c>
-      <c r="B5" t="s">
-        <v>5</v>
-      </c>
-      <c r="C5" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A6" t="s">
-        <v>91</v>
-      </c>
-      <c r="B6" t="s">
-        <v>2</v>
-      </c>
-      <c r="C6" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A7" t="s">
-        <v>102</v>
-      </c>
-      <c r="B7" t="s">
-        <v>2</v>
-      </c>
-      <c r="C7" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A8" t="s">
-        <v>103</v>
-      </c>
-      <c r="B8" t="s">
-        <v>2</v>
-      </c>
-      <c r="C8" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A9" t="s">
-        <v>104</v>
-      </c>
-      <c r="B9" t="s">
-        <v>2</v>
-      </c>
-      <c r="C9" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A10" t="s">
-        <v>92</v>
-      </c>
-      <c r="B10" t="s">
-        <v>3</v>
-      </c>
-      <c r="C10" t="s">
-        <v>10</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BDA7EAF6-D767-4C93-9528-F87E2BDAF5FF}">
   <dimension ref="A1:C3"/>
   <sheetViews>
@@ -982,7 +846,7 @@
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="B2" t="s">
         <v>5</v>
@@ -993,13 +857,143 @@
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="B3" t="s">
         <v>5</v>
       </c>
       <c r="C3" t="s">
         <v>12</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:C10"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A5" sqref="A5:XFD5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="44.77734375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9.33203125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="52.77734375" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>93</v>
+      </c>
+      <c r="B2" t="s">
+        <v>2</v>
+      </c>
+      <c r="C2" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>109</v>
+      </c>
+      <c r="B3" t="s">
+        <v>2</v>
+      </c>
+      <c r="C3" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>97</v>
+      </c>
+      <c r="B4" t="s">
+        <v>2</v>
+      </c>
+      <c r="C4" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
+        <v>87</v>
+      </c>
+      <c r="B5" t="s">
+        <v>5</v>
+      </c>
+      <c r="C5" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A6" t="s">
+        <v>88</v>
+      </c>
+      <c r="B6" t="s">
+        <v>2</v>
+      </c>
+      <c r="C6" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A7" t="s">
+        <v>98</v>
+      </c>
+      <c r="B7" t="s">
+        <v>2</v>
+      </c>
+      <c r="C7" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A8" t="s">
+        <v>99</v>
+      </c>
+      <c r="B8" t="s">
+        <v>2</v>
+      </c>
+      <c r="C8" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A9" t="s">
+        <v>100</v>
+      </c>
+      <c r="B9" t="s">
+        <v>2</v>
+      </c>
+      <c r="C9" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A10" t="s">
+        <v>89</v>
+      </c>
+      <c r="B10" t="s">
+        <v>3</v>
+      </c>
+      <c r="C10" t="s">
+        <v>10</v>
       </c>
     </row>
   </sheetData>
@@ -1008,64 +1002,11 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DF375775-692B-46A2-B001-F734C853D46A}">
-  <dimension ref="A1:C3"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A4" sqref="A4"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
-  <cols>
-    <col min="1" max="1" width="35.44140625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="11.5546875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="170.88671875" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" t="s">
-        <v>4</v>
-      </c>
-      <c r="C1" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A2" t="s">
-        <v>95</v>
-      </c>
-      <c r="B2" t="s">
-        <v>3</v>
-      </c>
-      <c r="C2" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A3" t="s">
-        <v>96</v>
-      </c>
-      <c r="B3" t="s">
-        <v>73</v>
-      </c>
-      <c r="C3" t="s">
-        <v>16</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B483AEFF-F926-4EE7-93DE-F8263CE1F8BB}">
   <dimension ref="A1:F19"/>
   <sheetViews>
-    <sheetView topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="D13" sqref="D13"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C22" sqref="C22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.2" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -1080,372 +1021,414 @@
   <sheetData>
     <row r="1" spans="1:6" s="2" customFormat="1" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="C1" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="B1" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="C1" s="2" t="s">
+      <c r="D1" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="D1" s="2" t="s">
-        <v>20</v>
-      </c>
       <c r="E1" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="F1" s="2" t="s">
         <v>68</v>
-      </c>
-      <c r="F1" s="2" t="s">
-        <v>69</v>
       </c>
     </row>
     <row r="2" spans="1:6" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B2" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="C2" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="D2" t="s">
         <v>29</v>
       </c>
-      <c r="D2" t="s">
-        <v>30</v>
-      </c>
       <c r="E2" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="3" spans="1:6" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
+        <v>21</v>
+      </c>
+      <c r="B3" t="s">
         <v>22</v>
       </c>
-      <c r="B3" t="s">
-        <v>23</v>
-      </c>
       <c r="C3" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="D3" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="D3" s="1" t="s">
-        <v>32</v>
-      </c>
       <c r="E3" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="4" spans="1:6" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B4" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="E4" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="5" spans="1:6" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B5" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="E5" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="6" spans="1:6" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B6" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="E6" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="F6" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="7" spans="1:6" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B7" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="E7" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="F7" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="8" spans="1:6" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B8" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="E8" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="9" spans="1:6" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B9" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C9" t="s">
+        <v>37</v>
+      </c>
+      <c r="D9" t="s">
         <v>38</v>
       </c>
-      <c r="D9" t="s">
+      <c r="E9" t="s">
         <v>39</v>
       </c>
-      <c r="E9" t="s">
+      <c r="F9" t="s">
         <v>40</v>
-      </c>
-      <c r="F9" t="s">
-        <v>41</v>
       </c>
     </row>
     <row r="10" spans="1:6" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B10" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C10" t="s">
+        <v>41</v>
+      </c>
+      <c r="D10" t="s">
+        <v>38</v>
+      </c>
+      <c r="E10" t="s">
         <v>42</v>
       </c>
-      <c r="D10" t="s">
-        <v>39</v>
-      </c>
-      <c r="E10" t="s">
+      <c r="F10" t="s">
         <v>43</v>
-      </c>
-      <c r="F10" t="s">
-        <v>44</v>
       </c>
     </row>
     <row r="11" spans="1:6" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B11" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C11" t="s">
+        <v>44</v>
+      </c>
+      <c r="D11" t="s">
+        <v>111</v>
+      </c>
+      <c r="E11" t="s">
+        <v>39</v>
+      </c>
+      <c r="F11" t="s">
         <v>45</v>
-      </c>
-      <c r="D11" t="s">
-        <v>117</v>
-      </c>
-      <c r="E11" t="s">
-        <v>40</v>
-      </c>
-      <c r="F11" t="s">
-        <v>46</v>
       </c>
     </row>
     <row r="12" spans="1:6" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B12" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C12" t="s">
+        <v>50</v>
+      </c>
+      <c r="D12" t="s">
+        <v>38</v>
+      </c>
+      <c r="E12" t="s">
+        <v>42</v>
+      </c>
+      <c r="F12" t="s">
         <v>51</v>
-      </c>
-      <c r="D12" t="s">
-        <v>39</v>
-      </c>
-      <c r="E12" t="s">
-        <v>43</v>
-      </c>
-      <c r="F12" t="s">
-        <v>52</v>
       </c>
     </row>
     <row r="13" spans="1:6" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B13" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C13" t="s">
+        <v>52</v>
+      </c>
+      <c r="D13" t="s">
+        <v>69</v>
+      </c>
+      <c r="E13" t="s">
+        <v>39</v>
+      </c>
+      <c r="F13" t="s">
         <v>53</v>
-      </c>
-      <c r="D13" t="s">
-        <v>70</v>
-      </c>
-      <c r="E13" t="s">
-        <v>40</v>
-      </c>
-      <c r="F13" t="s">
-        <v>54</v>
       </c>
     </row>
     <row r="14" spans="1:6" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B14" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C14" t="s">
+        <v>55</v>
+      </c>
+      <c r="D14" t="s">
         <v>56</v>
       </c>
-      <c r="D14" t="s">
+      <c r="E14" t="s">
+        <v>39</v>
+      </c>
+      <c r="F14" t="s">
         <v>57</v>
-      </c>
-      <c r="E14" t="s">
-        <v>40</v>
-      </c>
-      <c r="F14" t="s">
-        <v>58</v>
       </c>
     </row>
     <row r="15" spans="1:6" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B15" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C15" t="s">
+        <v>58</v>
+      </c>
+      <c r="D15" t="s">
+        <v>56</v>
+      </c>
+      <c r="E15" t="s">
+        <v>39</v>
+      </c>
+      <c r="F15" t="s">
         <v>59</v>
-      </c>
-      <c r="D15" t="s">
-        <v>57</v>
-      </c>
-      <c r="E15" t="s">
-        <v>40</v>
-      </c>
-      <c r="F15" t="s">
-        <v>60</v>
       </c>
     </row>
     <row r="16" spans="1:6" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B16" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C16" t="s">
+        <v>60</v>
+      </c>
+      <c r="D16" t="s">
+        <v>56</v>
+      </c>
+      <c r="E16" t="s">
+        <v>39</v>
+      </c>
+      <c r="F16" t="s">
         <v>61</v>
-      </c>
-      <c r="D16" t="s">
-        <v>57</v>
-      </c>
-      <c r="E16" t="s">
-        <v>40</v>
-      </c>
-      <c r="F16" t="s">
-        <v>62</v>
       </c>
     </row>
     <row r="17" spans="1:6" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B17" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C17" t="s">
+        <v>62</v>
+      </c>
+      <c r="D17" t="s">
+        <v>56</v>
+      </c>
+      <c r="E17" t="s">
+        <v>39</v>
+      </c>
+      <c r="F17" t="s">
         <v>63</v>
-      </c>
-      <c r="D17" t="s">
-        <v>57</v>
-      </c>
-      <c r="E17" t="s">
-        <v>40</v>
-      </c>
-      <c r="F17" t="s">
-        <v>64</v>
       </c>
     </row>
     <row r="18" spans="1:6" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B18" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C18" t="s">
+        <v>64</v>
+      </c>
+      <c r="D18" t="s">
         <v>65</v>
       </c>
-      <c r="D18" t="s">
+      <c r="E18" t="s">
+        <v>39</v>
+      </c>
+      <c r="F18" t="s">
         <v>66</v>
-      </c>
-      <c r="E18" t="s">
-        <v>40</v>
-      </c>
-      <c r="F18" t="s">
-        <v>67</v>
       </c>
     </row>
     <row r="19" spans="1:6" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="B19" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C19" t="s">
+        <v>46</v>
+      </c>
+      <c r="D19" t="s">
         <v>47</v>
       </c>
-      <c r="D19" t="s">
+      <c r="E19" t="s">
+        <v>39</v>
+      </c>
+      <c r="F19" t="s">
         <v>48</v>
-      </c>
-      <c r="E19" t="s">
-        <v>40</v>
-      </c>
-      <c r="F19" t="s">
-        <v>49</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DF375775-692B-46A2-B001-F734C853D46A}">
+  <dimension ref="A1:C2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A3" sqref="A3:XFD3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="35.44140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.5546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="170.88671875" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>92</v>
+      </c>
+      <c r="B2" t="s">
+        <v>3</v>
+      </c>
+      <c r="C2" t="s">
+        <v>20</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
@@ -1454,7 +1437,7 @@
   <dimension ref="A1:G6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G6" sqref="G6"/>
+      <selection activeCell="A7" sqref="A7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1462,7 +1445,7 @@
     <col min="1" max="1" width="24.6640625" customWidth="1"/>
     <col min="2" max="2" width="16.21875" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="33.109375" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="64.6640625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="71.33203125" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="11.77734375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -1471,137 +1454,137 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C1" t="s">
         <v>1</v>
       </c>
       <c r="D1" t="s">
+        <v>83</v>
+      </c>
+      <c r="E1" t="s">
         <v>84</v>
       </c>
-      <c r="E1" t="s">
+      <c r="F1" t="s">
         <v>85</v>
       </c>
-      <c r="F1" t="s">
-        <v>86</v>
-      </c>
       <c r="G1" t="s">
-        <v>112</v>
+        <v>107</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>106</v>
+        <v>102</v>
       </c>
       <c r="B2" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="C2" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="D2" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="E2" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="F2" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="G2" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>105</v>
+        <v>101</v>
       </c>
       <c r="B3" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C3" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="D3" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="E3" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="F3" t="s">
-        <v>113</v>
+        <v>108</v>
       </c>
       <c r="G3" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>107</v>
+        <v>103</v>
       </c>
       <c r="B4" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="C4" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="D4" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="E4" t="s">
-        <v>110</v>
+        <v>105</v>
       </c>
       <c r="F4" t="s">
-        <v>88</v>
+        <v>112</v>
       </c>
       <c r="G4" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>108</v>
+        <v>104</v>
       </c>
       <c r="B5" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="C5" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="D5" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="E5" t="s">
-        <v>110</v>
+        <v>105</v>
       </c>
       <c r="F5" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="G5" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>109</v>
+        <v>115</v>
       </c>
       <c r="B6" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="C6" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="D6" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="E6" t="s">
-        <v>111</v>
+        <v>106</v>
       </c>
       <c r="F6" t="s">
-        <v>89</v>
+        <v>114</v>
       </c>
       <c r="G6" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
   </sheetData>

--- a/gptdata.xlsx
+++ b/gptdata.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\ChatGPT ML\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Projects\SmartGPT\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ABD3992B-543E-48FE-A4E5-96E40DFE1442}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9AAC49FA-39A9-42D0-9E9B-37FB712D97C0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="12240" tabRatio="762" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-96" yWindow="0" windowWidth="11712" windowHeight="12336" tabRatio="762" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Relevance" sheetId="4" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="214" uniqueCount="117">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="220" uniqueCount="121">
   <si>
     <t>Question</t>
   </si>
@@ -318,24 +318,12 @@
     <t>I am named SmartGPT by my creator Anjani Sowmya.</t>
   </si>
   <si>
-    <t>I do help people in finding answers to their questions.</t>
-  </si>
-  <si>
     <t>Hello. Nice to meet you.</t>
   </si>
   <si>
     <t>what you</t>
   </si>
   <si>
-    <t>who VC Vice Chancellor AU Andhra University</t>
-  </si>
-  <si>
-    <t>who Registrar AU Andhra University</t>
-  </si>
-  <si>
-    <t>who Rector AU Andhra University</t>
-  </si>
-  <si>
     <t>list departments</t>
   </si>
   <si>
@@ -363,9 +351,6 @@
     <t>who you name your</t>
   </si>
   <si>
-    <t>hi hello hey located established vice chancellor vc registrar rector colleges where au andhra university who how what your</t>
-  </si>
-  <si>
     <t>Professor &amp; Co-ordinator, IQAC, Chairperson, Board of Studies</t>
   </si>
   <si>
@@ -382,6 +367,33 @@
   </si>
   <si>
     <t>departments profile details prof faculty college department about</t>
+  </si>
+  <si>
+    <t>are you smart</t>
+  </si>
+  <si>
+    <t>I am getting smarter day by day ;-)</t>
+  </si>
+  <si>
+    <t>hi hello hey located established vice chancellor vc registrar rector colleges where au andhra university who how what your smart introduce yourself</t>
+  </si>
+  <si>
+    <t>introduce yourself</t>
+  </si>
+  <si>
+    <t>I do help people in finding answers to the questions.</t>
+  </si>
+  <si>
+    <t>Hello, I am SmartGPT. I do help people in finding answers to the questions. I am learning new things and getting smarter day by day ;-)</t>
+  </si>
+  <si>
+    <t>VC Vice Chancellor AU Andhra University</t>
+  </si>
+  <si>
+    <t>Registrar AU Andhra University</t>
+  </si>
+  <si>
+    <t>Rector AU Andhra University</t>
   </si>
 </sst>
 </file>
@@ -712,13 +724,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DEF7F9EB-044B-432F-A76C-B9394198BD95}">
   <dimension ref="A1:B4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A5" sqref="A5"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="102.21875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="123.109375" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="13.21875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -732,7 +744,7 @@
     </row>
     <row r="2" spans="1:2" ht="13.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>110</v>
+        <v>114</v>
       </c>
       <c r="B2" t="s">
         <v>2</v>
@@ -748,7 +760,7 @@
     </row>
     <row r="4" spans="1:2" ht="13.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>116</v>
+        <v>111</v>
       </c>
       <c r="B4" t="s">
         <v>72</v>
@@ -873,17 +885,17 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:C10"/>
+  <dimension ref="A1:C12"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A5" sqref="A5:XFD5"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A11" sqref="A11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="44.77734375" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="9.33203125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="52.77734375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="111.21875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.3">
@@ -905,12 +917,12 @@
         <v>2</v>
       </c>
       <c r="C2" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>109</v>
+        <v>105</v>
       </c>
       <c r="B3" t="s">
         <v>2</v>
@@ -921,78 +933,100 @@
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="B4" t="s">
         <v>2</v>
       </c>
       <c r="C4" t="s">
-        <v>95</v>
+        <v>116</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>87</v>
+        <v>112</v>
       </c>
       <c r="B5" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="C5" t="s">
-        <v>7</v>
+        <v>113</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>88</v>
+        <v>115</v>
       </c>
       <c r="B6" t="s">
         <v>2</v>
       </c>
       <c r="C6" t="s">
-        <v>13</v>
+        <v>117</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
-        <v>98</v>
+        <v>87</v>
       </c>
       <c r="B7" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="C7" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
-        <v>99</v>
+        <v>88</v>
       </c>
       <c r="B8" t="s">
         <v>2</v>
       </c>
       <c r="C8" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
-        <v>100</v>
+        <v>118</v>
       </c>
       <c r="B9" t="s">
         <v>2</v>
       </c>
       <c r="C9" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
+        <v>119</v>
+      </c>
+      <c r="B10" t="s">
+        <v>2</v>
+      </c>
+      <c r="C10" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A11" t="s">
+        <v>120</v>
+      </c>
+      <c r="B11" t="s">
+        <v>2</v>
+      </c>
+      <c r="C11" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A12" t="s">
         <v>89</v>
       </c>
-      <c r="B10" t="s">
+      <c r="B12" t="s">
         <v>3</v>
       </c>
-      <c r="C10" t="s">
+      <c r="C12" t="s">
         <v>10</v>
       </c>
     </row>
@@ -1215,7 +1249,7 @@
         <v>44</v>
       </c>
       <c r="D11" t="s">
-        <v>111</v>
+        <v>106</v>
       </c>
       <c r="E11" t="s">
         <v>39</v>
@@ -1469,12 +1503,12 @@
         <v>85</v>
       </c>
       <c r="G1" t="s">
-        <v>107</v>
+        <v>103</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>102</v>
+        <v>98</v>
       </c>
       <c r="B2" t="s">
         <v>77</v>
@@ -1497,7 +1531,7 @@
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>101</v>
+        <v>97</v>
       </c>
       <c r="B3" t="s">
         <v>76</v>
@@ -1512,7 +1546,7 @@
         <v>17</v>
       </c>
       <c r="F3" t="s">
-        <v>108</v>
+        <v>104</v>
       </c>
       <c r="G3" t="s">
         <v>16</v>
@@ -1520,7 +1554,7 @@
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>103</v>
+        <v>99</v>
       </c>
       <c r="B4" t="s">
         <v>75</v>
@@ -1532,10 +1566,10 @@
         <v>72</v>
       </c>
       <c r="E4" t="s">
-        <v>105</v>
+        <v>101</v>
       </c>
       <c r="F4" t="s">
-        <v>112</v>
+        <v>107</v>
       </c>
       <c r="G4" t="s">
         <v>18</v>
@@ -1543,7 +1577,7 @@
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>104</v>
+        <v>100</v>
       </c>
       <c r="B5" t="s">
         <v>78</v>
@@ -1555,10 +1589,10 @@
         <v>72</v>
       </c>
       <c r="E5" t="s">
-        <v>105</v>
+        <v>101</v>
       </c>
       <c r="F5" t="s">
-        <v>113</v>
+        <v>108</v>
       </c>
       <c r="G5" t="s">
         <v>18</v>
@@ -1566,7 +1600,7 @@
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>115</v>
+        <v>110</v>
       </c>
       <c r="B6" t="s">
         <v>74</v>
@@ -1578,10 +1612,10 @@
         <v>72</v>
       </c>
       <c r="E6" t="s">
-        <v>106</v>
+        <v>102</v>
       </c>
       <c r="F6" t="s">
-        <v>114</v>
+        <v>109</v>
       </c>
       <c r="G6" t="s">
         <v>18</v>

--- a/gptdata.xlsx
+++ b/gptdata.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Projects\SmartGPT\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9AAC49FA-39A9-42D0-9E9B-37FB712D97C0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6A9516A8-414D-406F-99F4-D1B5FB794456}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-96" yWindow="0" windowWidth="11712" windowHeight="12336" tabRatio="762" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="11424" yWindow="0" windowWidth="11712" windowHeight="12336" tabRatio="762" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Relevance" sheetId="4" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="220" uniqueCount="121">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="223" uniqueCount="123">
   <si>
     <t>Question</t>
   </si>
@@ -72,9 +72,6 @@
     <t>Visakhapatnam is famous for its beautiful beaches, natural harbour, steel plant, araku valley and many more.</t>
   </si>
   <si>
-    <t>Andhra University was established in 1926.</t>
-  </si>
-  <si>
     <t>Prof. V. Krishna Mohan is the Registrar of Andhra University.</t>
   </si>
   <si>
@@ -375,9 +372,6 @@
     <t>I am getting smarter day by day ;-)</t>
   </si>
   <si>
-    <t>hi hello hey located established vice chancellor vc registrar rector colleges where au andhra university who how what your smart introduce yourself</t>
-  </si>
-  <si>
     <t>introduce yourself</t>
   </si>
   <si>
@@ -394,6 +388,18 @@
   </si>
   <si>
     <t>Rector AU Andhra University</t>
+  </si>
+  <si>
+    <t>know about AU Andhra University</t>
+  </si>
+  <si>
+    <t>hi hello hey located established vice chancellor vc registrar rector colleges where au andhra university who how what your smart introduce yourself do know about</t>
+  </si>
+  <si>
+    <t>Andhra University is one of the oldest educational institutions in the country and also the first university to be conceived as a residential and teaching-cum-affiliating University, mainly devoted to post-graduate teaching and research. Andhra University was constituted in the year 1926 by the Madras Act of 1926. The 94-year-old institution is fortunate to have Sir C.R. Reddy as its founder Vice-Chancellor, as the steps taken by this visionary proved to be fruitful in the long run. Former President of India Dr. Sarvepalli Radhakrishnan was one of its Vice-Chancellors who succeed Dr. C. R. Reddy in 1931. The leaders of the university always believed that excellence in higher education is the best investment for the country and engaged the services of famous educationists such as Dr. T.R. Seshadri, Dr. S. Bhagavantham, Professor Hiren Mukherjee, Professor Humayan Kabir and Dr. V.K.R.V. Rao, to mention a few who set high standards for teaching and research. Nobel Lariat C V Raman was the proud alumnus of the University and closely associated in laying research foundations in Physics. Padmavibhushan Prof. C R Rao, the renowned statistician of the world, was also the proud alumnus of the University. Ever since its inception in 1926 Andhra University has an impeccable record of catering to the educational needs and solving the sociological problems of the region. The University is relentless in its efforts in maintaining standards in teaching and research, ensuring proper character building and development among the students, encouraging community developmental programmes, nurturing leadership in young men and women and imbibing a sense of responsibility to become good citizens, while striving for excellence in all fronts.</t>
+  </si>
+  <si>
+    <t>Andhra University was established in 1926 by the Madras Act of 1926. The 94-year-old institution is fortunate to have Sir C.R. Reddy as its founder Vice-Chancellor, as the steps taken by this visionary proved to be fruitful in the long run.</t>
   </si>
 </sst>
 </file>
@@ -744,7 +750,7 @@
     </row>
     <row r="2" spans="1:2" ht="13.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>114</v>
+        <v>120</v>
       </c>
       <c r="B2" t="s">
         <v>2</v>
@@ -752,7 +758,7 @@
     </row>
     <row r="3" spans="1:2" ht="13.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B3" t="s">
         <v>5</v>
@@ -760,10 +766,10 @@
     </row>
     <row r="4" spans="1:2" ht="13.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="B4" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
     </row>
   </sheetData>
@@ -798,7 +804,7 @@
         <v>2</v>
       </c>
       <c r="B2" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.3">
@@ -806,7 +812,7 @@
         <v>5</v>
       </c>
       <c r="B3" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.3">
@@ -814,15 +820,15 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="B5" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
     </row>
   </sheetData>
@@ -858,7 +864,7 @@
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="B2" t="s">
         <v>5</v>
@@ -869,7 +875,7 @@
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="B3" t="s">
         <v>5</v>
@@ -885,10 +891,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:C12"/>
+  <dimension ref="A1:C13"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A11" sqref="A11"/>
+    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -911,62 +917,62 @@
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="B2" t="s">
         <v>2</v>
       </c>
       <c r="C2" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="B3" t="s">
         <v>2</v>
       </c>
       <c r="C3" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="B4" t="s">
         <v>2</v>
       </c>
       <c r="C4" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="B5" t="s">
         <v>2</v>
       </c>
       <c r="C5" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="B6" t="s">
         <v>2</v>
       </c>
       <c r="C6" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="B7" t="s">
         <v>5</v>
@@ -977,18 +983,18 @@
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="B8" t="s">
         <v>2</v>
       </c>
       <c r="C8" t="s">
-        <v>13</v>
+        <v>122</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="B9" t="s">
         <v>2</v>
@@ -999,18 +1005,18 @@
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="B10" t="s">
         <v>2</v>
       </c>
       <c r="C10" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="B11" t="s">
         <v>2</v>
@@ -1021,7 +1027,7 @@
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="B12" t="s">
         <v>3</v>
@@ -1030,8 +1036,20 @@
         <v>10</v>
       </c>
     </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A13" t="s">
+        <v>119</v>
+      </c>
+      <c r="B13" t="s">
+        <v>2</v>
+      </c>
+      <c r="C13" s="1" t="s">
+        <v>121</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -1055,367 +1073,367 @@
   <sheetData>
     <row r="1" spans="1:6" s="2" customFormat="1" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="C1" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="B1" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="C1" s="2" t="s">
+      <c r="D1" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="D1" s="2" t="s">
-        <v>19</v>
-      </c>
       <c r="E1" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="F1" s="2" t="s">
         <v>67</v>
-      </c>
-      <c r="F1" s="2" t="s">
-        <v>68</v>
       </c>
     </row>
     <row r="2" spans="1:6" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B2" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="C2" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="D2" t="s">
         <v>28</v>
       </c>
-      <c r="D2" t="s">
-        <v>29</v>
-      </c>
       <c r="E2" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="3" spans="1:6" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
+        <v>20</v>
+      </c>
+      <c r="B3" t="s">
         <v>21</v>
       </c>
-      <c r="B3" t="s">
-        <v>22</v>
-      </c>
       <c r="C3" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="D3" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="D3" s="1" t="s">
-        <v>31</v>
-      </c>
       <c r="E3" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="4" spans="1:6" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B4" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="E4" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="5" spans="1:6" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B5" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="E5" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="6" spans="1:6" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B6" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="E6" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="F6" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="7" spans="1:6" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B7" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="E7" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="F7" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="8" spans="1:6" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B8" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="E8" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="9" spans="1:6" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B9" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C9" t="s">
+        <v>36</v>
+      </c>
+      <c r="D9" t="s">
         <v>37</v>
       </c>
-      <c r="D9" t="s">
+      <c r="E9" t="s">
         <v>38</v>
       </c>
-      <c r="E9" t="s">
+      <c r="F9" t="s">
         <v>39</v>
-      </c>
-      <c r="F9" t="s">
-        <v>40</v>
       </c>
     </row>
     <row r="10" spans="1:6" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B10" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C10" t="s">
+        <v>40</v>
+      </c>
+      <c r="D10" t="s">
+        <v>37</v>
+      </c>
+      <c r="E10" t="s">
         <v>41</v>
       </c>
-      <c r="D10" t="s">
-        <v>38</v>
-      </c>
-      <c r="E10" t="s">
+      <c r="F10" t="s">
         <v>42</v>
-      </c>
-      <c r="F10" t="s">
-        <v>43</v>
       </c>
     </row>
     <row r="11" spans="1:6" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B11" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C11" t="s">
+        <v>43</v>
+      </c>
+      <c r="D11" t="s">
+        <v>105</v>
+      </c>
+      <c r="E11" t="s">
+        <v>38</v>
+      </c>
+      <c r="F11" t="s">
         <v>44</v>
-      </c>
-      <c r="D11" t="s">
-        <v>106</v>
-      </c>
-      <c r="E11" t="s">
-        <v>39</v>
-      </c>
-      <c r="F11" t="s">
-        <v>45</v>
       </c>
     </row>
     <row r="12" spans="1:6" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B12" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C12" t="s">
+        <v>49</v>
+      </c>
+      <c r="D12" t="s">
+        <v>37</v>
+      </c>
+      <c r="E12" t="s">
+        <v>41</v>
+      </c>
+      <c r="F12" t="s">
         <v>50</v>
-      </c>
-      <c r="D12" t="s">
-        <v>38</v>
-      </c>
-      <c r="E12" t="s">
-        <v>42</v>
-      </c>
-      <c r="F12" t="s">
-        <v>51</v>
       </c>
     </row>
     <row r="13" spans="1:6" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B13" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C13" t="s">
+        <v>51</v>
+      </c>
+      <c r="D13" t="s">
+        <v>68</v>
+      </c>
+      <c r="E13" t="s">
+        <v>38</v>
+      </c>
+      <c r="F13" t="s">
         <v>52</v>
-      </c>
-      <c r="D13" t="s">
-        <v>69</v>
-      </c>
-      <c r="E13" t="s">
-        <v>39</v>
-      </c>
-      <c r="F13" t="s">
-        <v>53</v>
       </c>
     </row>
     <row r="14" spans="1:6" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B14" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C14" t="s">
+        <v>54</v>
+      </c>
+      <c r="D14" t="s">
         <v>55</v>
       </c>
-      <c r="D14" t="s">
+      <c r="E14" t="s">
+        <v>38</v>
+      </c>
+      <c r="F14" t="s">
         <v>56</v>
-      </c>
-      <c r="E14" t="s">
-        <v>39</v>
-      </c>
-      <c r="F14" t="s">
-        <v>57</v>
       </c>
     </row>
     <row r="15" spans="1:6" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B15" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C15" t="s">
+        <v>57</v>
+      </c>
+      <c r="D15" t="s">
+        <v>55</v>
+      </c>
+      <c r="E15" t="s">
+        <v>38</v>
+      </c>
+      <c r="F15" t="s">
         <v>58</v>
-      </c>
-      <c r="D15" t="s">
-        <v>56</v>
-      </c>
-      <c r="E15" t="s">
-        <v>39</v>
-      </c>
-      <c r="F15" t="s">
-        <v>59</v>
       </c>
     </row>
     <row r="16" spans="1:6" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B16" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C16" t="s">
+        <v>59</v>
+      </c>
+      <c r="D16" t="s">
+        <v>55</v>
+      </c>
+      <c r="E16" t="s">
+        <v>38</v>
+      </c>
+      <c r="F16" t="s">
         <v>60</v>
-      </c>
-      <c r="D16" t="s">
-        <v>56</v>
-      </c>
-      <c r="E16" t="s">
-        <v>39</v>
-      </c>
-      <c r="F16" t="s">
-        <v>61</v>
       </c>
     </row>
     <row r="17" spans="1:6" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B17" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C17" t="s">
+        <v>61</v>
+      </c>
+      <c r="D17" t="s">
+        <v>55</v>
+      </c>
+      <c r="E17" t="s">
+        <v>38</v>
+      </c>
+      <c r="F17" t="s">
         <v>62</v>
-      </c>
-      <c r="D17" t="s">
-        <v>56</v>
-      </c>
-      <c r="E17" t="s">
-        <v>39</v>
-      </c>
-      <c r="F17" t="s">
-        <v>63</v>
       </c>
     </row>
     <row r="18" spans="1:6" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B18" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C18" t="s">
+        <v>63</v>
+      </c>
+      <c r="D18" t="s">
         <v>64</v>
       </c>
-      <c r="D18" t="s">
+      <c r="E18" t="s">
+        <v>38</v>
+      </c>
+      <c r="F18" t="s">
         <v>65</v>
-      </c>
-      <c r="E18" t="s">
-        <v>39</v>
-      </c>
-      <c r="F18" t="s">
-        <v>66</v>
       </c>
     </row>
     <row r="19" spans="1:6" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="B19" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C19" t="s">
+        <v>45</v>
+      </c>
+      <c r="D19" t="s">
         <v>46</v>
       </c>
-      <c r="D19" t="s">
+      <c r="E19" t="s">
+        <v>38</v>
+      </c>
+      <c r="F19" t="s">
         <v>47</v>
-      </c>
-      <c r="E19" t="s">
-        <v>39</v>
-      </c>
-      <c r="F19" t="s">
-        <v>48</v>
       </c>
     </row>
   </sheetData>
@@ -1452,13 +1470,13 @@
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="B2" t="s">
         <v>3</v>
       </c>
       <c r="C2" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
   </sheetData>
@@ -1488,137 +1506,137 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C1" t="s">
         <v>1</v>
       </c>
       <c r="D1" t="s">
+        <v>82</v>
+      </c>
+      <c r="E1" t="s">
         <v>83</v>
       </c>
-      <c r="E1" t="s">
+      <c r="F1" t="s">
         <v>84</v>
       </c>
-      <c r="F1" t="s">
-        <v>85</v>
-      </c>
       <c r="G1" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="B2" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C2" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="D2" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="E2" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="F2" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="G2" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="B3" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="C3" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="D3" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="E3" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="F3" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="G3" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="B4" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="C4" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="D4" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="E4" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="F4" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="G4" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
+        <v>99</v>
+      </c>
+      <c r="B5" t="s">
+        <v>77</v>
+      </c>
+      <c r="C5" t="s">
+        <v>80</v>
+      </c>
+      <c r="D5" t="s">
+        <v>71</v>
+      </c>
+      <c r="E5" t="s">
         <v>100</v>
       </c>
-      <c r="B5" t="s">
-        <v>78</v>
-      </c>
-      <c r="C5" t="s">
-        <v>81</v>
-      </c>
-      <c r="D5" t="s">
-        <v>72</v>
-      </c>
-      <c r="E5" t="s">
-        <v>101</v>
-      </c>
       <c r="F5" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="G5" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="B6" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="C6" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="D6" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="E6" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="F6" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="G6" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
   </sheetData>

--- a/gptdata.xlsx
+++ b/gptdata.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26130"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26227"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Projects\SmartGPT\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6A9516A8-414D-406F-99F4-D1B5FB794456}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{866E64E0-27D2-47BE-B729-06E144E98D9A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="11424" yWindow="0" windowWidth="11712" windowHeight="12336" tabRatio="762" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-96" yWindow="0" windowWidth="11712" windowHeight="12336" tabRatio="762" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Relevance" sheetId="4" r:id="rId1"/>
@@ -21,7 +21,7 @@
     <sheet name="Colleges" sheetId="3" r:id="rId6"/>
     <sheet name="DataSheet" sheetId="7" r:id="rId7"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="144525"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="223" uniqueCount="123">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="493" uniqueCount="305">
   <si>
     <t>Question</t>
   </si>
@@ -57,12 +57,6 @@
     <t>Andhra University is located in Visakhapatnam.</t>
   </si>
   <si>
-    <t>Prof. Prasad Reddy is the Vice Chancellor of Andhra University.</t>
-  </si>
-  <si>
-    <t>Prof. Samata is the Rector of Andhra University.</t>
-  </si>
-  <si>
     <t>There are a total of 6 colleges present in Andhra University.</t>
   </si>
   <si>
@@ -99,15 +93,6 @@
     <t>Architecture</t>
   </si>
   <si>
-    <t>Civil</t>
-  </si>
-  <si>
-    <t>Chemical</t>
-  </si>
-  <si>
-    <t>Computer Science</t>
-  </si>
-  <si>
     <t>Information Technology</t>
   </si>
   <si>
@@ -147,266 +132,827 @@
     <t>Professor</t>
   </si>
   <si>
-    <t>Ph.D.</t>
+    <t>Prof. V.Valli Kumari</t>
+  </si>
+  <si>
+    <t>Prof. D.Lalitha Bhaskari</t>
+  </si>
+  <si>
+    <t>Prof. B.Prajna</t>
+  </si>
+  <si>
+    <t>Professor &amp; Head of the Department (AUCEW)</t>
+  </si>
+  <si>
+    <t>Prof. S.Viziananda Row</t>
+  </si>
+  <si>
+    <t>Prof. Ch.Satyananda Reddy</t>
+  </si>
+  <si>
+    <t>Dr. K.Raja Kumar</t>
+  </si>
+  <si>
+    <t>Assosicate Professor</t>
+  </si>
+  <si>
+    <t>Dr. S.Jhansi Rani</t>
+  </si>
+  <si>
+    <t>Dr. K.Venkata Ramana</t>
+  </si>
+  <si>
+    <t>Dr. A.M.Soujanya</t>
+  </si>
+  <si>
+    <t>Dr. G.Lavanya Devi</t>
+  </si>
+  <si>
+    <t>Assistant Professor</t>
+  </si>
+  <si>
+    <t>Professor &amp; Addl. Dean (Confidential-Exams)</t>
+  </si>
+  <si>
+    <t>AU College of Engineering for Women</t>
+  </si>
+  <si>
+    <t>Office</t>
+  </si>
+  <si>
+    <t>Faculty</t>
+  </si>
+  <si>
+    <t>QNA</t>
+  </si>
+  <si>
+    <t>Faculty Profile</t>
+  </si>
+  <si>
+    <t>Faculty Count</t>
+  </si>
+  <si>
+    <t>Department List</t>
+  </si>
+  <si>
+    <t>Department Count</t>
+  </si>
+  <si>
+    <t>Faculty List</t>
+  </si>
+  <si>
+    <t>DataSheet</t>
+  </si>
+  <si>
+    <t>Count</t>
+  </si>
+  <si>
+    <t>List</t>
+  </si>
+  <si>
+    <t>Profile</t>
+  </si>
+  <si>
+    <t>Sheet</t>
+  </si>
+  <si>
+    <t>Input</t>
+  </si>
+  <si>
+    <t>Output</t>
+  </si>
+  <si>
+    <t>There are $Count departments in $College.</t>
+  </si>
+  <si>
+    <t>AU Andhra University located</t>
+  </si>
+  <si>
+    <t>AU Andhra University established</t>
+  </si>
+  <si>
+    <t>colleges AU Andhra University</t>
+  </si>
+  <si>
+    <t>Where Visakhapatnam Vizag</t>
+  </si>
+  <si>
+    <t>Visakhapatnam Vizag famous special</t>
+  </si>
+  <si>
+    <t>What are they? List them colleges</t>
+  </si>
+  <si>
+    <t>hi hello hey</t>
+  </si>
+  <si>
+    <t>I am named SmartGPT by my creator Anjani Sowmya.</t>
+  </si>
+  <si>
+    <t>Hello. Nice to meet you.</t>
+  </si>
+  <si>
+    <t>what you</t>
+  </si>
+  <si>
+    <t>list departments</t>
+  </si>
+  <si>
+    <t>departments total count</t>
+  </si>
+  <si>
+    <t>faculty total count</t>
+  </si>
+  <si>
+    <t>faculty list</t>
+  </si>
+  <si>
+    <t>College,Department</t>
+  </si>
+  <si>
+    <t>College,Department,Name,Designation</t>
+  </si>
+  <si>
+    <t>Unique</t>
+  </si>
+  <si>
+    <t>Following are the departments present in $College.$NL$List</t>
+  </si>
+  <si>
+    <t>Professor &amp; Co-ordinator, IQAC, Chairperson, Board of Studies</t>
+  </si>
+  <si>
+    <t>There are $Count faculty members in $Department department of $College.</t>
+  </si>
+  <si>
+    <t>Following are the faculty present in $Department department of $College.$NL$List</t>
+  </si>
+  <si>
+    <t>$Name is currently working as $Designation in $Department department of $College.</t>
+  </si>
+  <si>
+    <t>faculty profile about</t>
+  </si>
+  <si>
+    <t>departments profile details prof faculty college department about</t>
+  </si>
+  <si>
+    <t>I am getting smarter day by day ;-)</t>
+  </si>
+  <si>
+    <t>introduce yourself</t>
+  </si>
+  <si>
+    <t>I do help people in finding answers to the questions.</t>
+  </si>
+  <si>
+    <t>Hello, I am SmartGPT. I do help people in finding answers to the questions. I am learning new things and getting smarter day by day ;-)</t>
+  </si>
+  <si>
+    <t>VC Vice Chancellor AU Andhra University</t>
+  </si>
+  <si>
+    <t>Registrar AU Andhra University</t>
+  </si>
+  <si>
+    <t>Rector AU Andhra University</t>
+  </si>
+  <si>
+    <t>know about AU Andhra University</t>
+  </si>
+  <si>
+    <t>Andhra University is one of the oldest educational institutions in the country and also the first university to be conceived as a residential and teaching-cum-affiliating University, mainly devoted to post-graduate teaching and research. Andhra University was constituted in the year 1926 by the Madras Act of 1926. The 94-year-old institution is fortunate to have Sir C.R. Reddy as its founder Vice-Chancellor, as the steps taken by this visionary proved to be fruitful in the long run. Former President of India Dr. Sarvepalli Radhakrishnan was one of its Vice-Chancellors who succeed Dr. C. R. Reddy in 1931. The leaders of the university always believed that excellence in higher education is the best investment for the country and engaged the services of famous educationists such as Dr. T.R. Seshadri, Dr. S. Bhagavantham, Professor Hiren Mukherjee, Professor Humayan Kabir and Dr. V.K.R.V. Rao, to mention a few who set high standards for teaching and research. Nobel Lariat C V Raman was the proud alumnus of the University and closely associated in laying research foundations in Physics. Padmavibhushan Prof. C R Rao, the renowned statistician of the world, was also the proud alumnus of the University. Ever since its inception in 1926 Andhra University has an impeccable record of catering to the educational needs and solving the sociological problems of the region. The University is relentless in its efforts in maintaining standards in teaching and research, ensuring proper character building and development among the students, encouraging community developmental programmes, nurturing leadership in young men and women and imbibing a sense of responsibility to become good citizens, while striving for excellence in all fronts.</t>
+  </si>
+  <si>
+    <t>Andhra University was established in 1926 by the Madras Act of 1926. The 94-year-old institution is fortunate to have Sir C.R. Reddy as its founder Vice-Chancellor, as the steps taken by this visionary proved to be fruitful in the long run.</t>
+  </si>
+  <si>
+    <t>Computer Science and Systems Engineering</t>
+  </si>
+  <si>
+    <t>Civil Engineering</t>
+  </si>
+  <si>
+    <t>Chemical Engineering</t>
+  </si>
+  <si>
+    <t>intelligent smart</t>
+  </si>
+  <si>
+    <t>you name your</t>
+  </si>
+  <si>
+    <t>Prof. K. Samata is the Rector of Andhra University.</t>
+  </si>
+  <si>
+    <t>Specialization</t>
+  </si>
+  <si>
+    <t>Professor &amp; Head of the Department</t>
+  </si>
+  <si>
+    <t>Professor &amp; Head of the Department Co-ordinater, Electric Works</t>
+  </si>
+  <si>
+    <t>Control Systems</t>
+  </si>
+  <si>
+    <t>Prof. K.Rama Sudha</t>
+  </si>
+  <si>
+    <t>Prof. N.Prema Kumar</t>
+  </si>
+  <si>
+    <t>Professor &amp; Head of the Department, EE, AUCEW</t>
+  </si>
+  <si>
+    <t>Professor &amp; Co-ordinator SWAYAM &amp; Nodal Officer Local Chapter &amp; Chairman, Board of Studies</t>
+  </si>
+  <si>
+    <t>Power Systems</t>
+  </si>
+  <si>
+    <t>Electrical Engineering</t>
+  </si>
+  <si>
+    <t>Data Structures, DAA, Computer Graphics, Operating Systems, DBMS, Ex.S, CD</t>
+  </si>
+  <si>
+    <t>Fuzzy Theory, Data Mining, Bioinformatics, Object Oriented Analysis and Design, Database Systems, Cryptography and Network Security, Algorithm Analysis, Automata Theory, Computer Communication and Networks</t>
+  </si>
+  <si>
+    <t>DBMS, Operating Systems, Computer Networks, FS.</t>
+  </si>
+  <si>
+    <t>Compiler Design, Data Mining and Ware Housing, Formal Languages and Web Technologies.</t>
+  </si>
+  <si>
+    <t>Computer Networks, Data Communication, Data Structures, DBMS, Operating Systems.</t>
+  </si>
+  <si>
+    <t>Embedded Systems, VLSI, Micro Controllers, Computer Networks.</t>
+  </si>
+  <si>
+    <t>Algorithms, Bio-Informatics, Operating Systems.</t>
+  </si>
+  <si>
+    <t>Software Engineering, Software Project and Process Management, Software Estimation, Software Metrics, Software Requirements Engineering, Software Architecture, Software Testing, Human Computer Interaction.</t>
+  </si>
+  <si>
+    <t>Operating Systems, Distributed Systems, AI</t>
+  </si>
+  <si>
+    <t>Image Processing, Data Structures, Systems Programming, Programming Languages, Neural Networks, Fuzzy Systems and Web Technologies.</t>
+  </si>
+  <si>
+    <t>Security, Theory of Computation, Image Processing, Network Security &amp; Cryptography.</t>
+  </si>
+  <si>
+    <t>Network Security, Cryptography, Algorithms, E-Commerce Security, DBMS, Data Mining, software Engineering.</t>
   </si>
   <si>
     <t>Data Warehousing &amp; Mining, AI, Data Structures</t>
   </si>
   <si>
-    <t>Prof. V.Valli Kumari</t>
+    <t>Prof. P.V.G.D Prasad Reddy is the Vice Chancellor of Andhra University.He is specialized in Software Architectures, Data Engineering, Image Analysis &amp; Machine Intelligence, Computer Networks &amp; Crypto Systems and Web Technologies</t>
+  </si>
+  <si>
+    <t>Remote Sensing and GIS accompanied with Water Resources Engg.</t>
+  </si>
+  <si>
+    <t>Computer aided Process synthesis, Equipment design, Process Control &amp; Pollution Control</t>
+  </si>
+  <si>
+    <t>Soil Mechanics &amp; Foundation Engg</t>
+  </si>
+  <si>
+    <t>Architecture and Planning, Heritage Conservation</t>
+  </si>
+  <si>
+    <t>Electronics and Communication Engineering</t>
+  </si>
+  <si>
+    <t>Prof. P. Rajesh Kumar</t>
+  </si>
+  <si>
+    <t>Dr. S.Aruna</t>
+  </si>
+  <si>
+    <t>Antenna Arrays, Planar &amp; co-planar</t>
+  </si>
+  <si>
+    <t>Radar Signal Processing</t>
+  </si>
+  <si>
+    <t>Assistant Professor &amp; Head of the Department, ECE, AUCEW</t>
+  </si>
+  <si>
+    <t>Dr. A. Kamala Kumari</t>
+  </si>
+  <si>
+    <t>Associate Professor &amp; Head of Department</t>
+  </si>
+  <si>
+    <t>Digital Systems and Computer Electronics</t>
+  </si>
+  <si>
+    <t>Instrumentation Engineering</t>
+  </si>
+  <si>
+    <t>Prof. V.V.S.Prasad</t>
+  </si>
+  <si>
+    <t>Professor &amp; Head of the Deparment</t>
+  </si>
+  <si>
+    <t>Manufacturing Technology</t>
+  </si>
+  <si>
+    <t>Marine Engineering</t>
+  </si>
+  <si>
+    <t>Prof. K. Ramji</t>
+  </si>
+  <si>
+    <t>Machine Design</t>
+  </si>
+  <si>
+    <t>Mechanical Engineering</t>
+  </si>
+  <si>
+    <t>Prof. Babu Rao Jinugu</t>
+  </si>
+  <si>
+    <t>Composites, Industrial waste treatment, Nano Materials</t>
+  </si>
+  <si>
+    <t>Metallurgical Engineering</t>
+  </si>
+  <si>
+    <t>Dr. N. Annapurna</t>
+  </si>
+  <si>
+    <t>Inorganic Chemistry</t>
+  </si>
+  <si>
+    <t>Engineering Chemistry</t>
+  </si>
+  <si>
+    <t>Prof. P. Vasudeva Reddy</t>
+  </si>
+  <si>
+    <t>Cryptography</t>
+  </si>
+  <si>
+    <t>Engineering Mathematics</t>
+  </si>
+  <si>
+    <t>Prof. Yajjala Rama Krishna</t>
+  </si>
+  <si>
+    <t>Nuclear Physics, Material Science</t>
+  </si>
+  <si>
+    <t>Engineering Physics</t>
+  </si>
+  <si>
+    <t>Dr. A. Rama Naga Hanuman</t>
+  </si>
+  <si>
+    <t>Postwar American Fiction, Cultural Studies and ELT</t>
+  </si>
+  <si>
+    <t>Humanities and Social Sciences</t>
+  </si>
+  <si>
+    <t>AU College of Arts &amp; Commerce</t>
+  </si>
+  <si>
+    <t>Sri. D.Ramesh</t>
+  </si>
+  <si>
+    <t>Cultural Anthropology</t>
+  </si>
+  <si>
+    <t>Anthropology</t>
+  </si>
+  <si>
+    <t>Prof. Jaladi Ravi</t>
+  </si>
+  <si>
+    <t>Human Resources Management</t>
+  </si>
+  <si>
+    <t>Professor &amp; Head of the Department, Chairman - BOS</t>
+  </si>
+  <si>
+    <t>Commerce and Management Studies</t>
+  </si>
+  <si>
+    <t>S. Pulla Rao</t>
   </si>
   <si>
     <t>Ph.D</t>
   </si>
   <si>
-    <t>Network Security, Cryptography, Algorithms, E-Commerce Security, DBMS, Data Mining, software Engineering.</t>
-  </si>
-  <si>
-    <t>Prof. D.Lalitha Bhaskari</t>
-  </si>
-  <si>
-    <t>Security, Theory of Computation, Image Processing, Network Security &amp; Cryptography.</t>
-  </si>
-  <si>
-    <t>Prof. B.Prajna</t>
-  </si>
-  <si>
-    <t>Professor &amp; Head of the Department (AUCEW)</t>
-  </si>
-  <si>
-    <t>Data Structures, DAA, Computer Graphics, Operating Systems, DBMS, Ex.S, CD</t>
-  </si>
-  <si>
-    <t>Image Processing, Data Structures, Systems Programming, Programming Languages, Neural Networks, Fuzzy Systems and Web Technologies.</t>
-  </si>
-  <si>
-    <t>Prof. S.Viziananda Row</t>
-  </si>
-  <si>
-    <t>Operating Systems, Distributed Systems, AI</t>
-  </si>
-  <si>
-    <t>Prof. Ch.Satyananda Reddy</t>
-  </si>
-  <si>
-    <t>Software Engineering, Software Project and Process Management, Software Estimation, Software Metrics, Software Requirements Engineering, Software Architecture, Software Testing, Human Computer Interaction.</t>
-  </si>
-  <si>
-    <t>Algorithms, Bio-Informatics, Operating Systems.</t>
-  </si>
-  <si>
-    <t>Dr. K.Raja Kumar</t>
-  </si>
-  <si>
-    <t>Assosicate Professor</t>
-  </si>
-  <si>
-    <t>Embedded Systems, VLSI, Micro Controllers, Computer Networks.</t>
-  </si>
-  <si>
-    <t>Dr. S.Jhansi Rani</t>
-  </si>
-  <si>
-    <t>Computer Networks, Data Communication, Data Structures, DBMS, Operating Systems.</t>
-  </si>
-  <si>
-    <t>Dr. K.Venkata Ramana</t>
-  </si>
-  <si>
-    <t>Compiler Design, Data Mining and Ware Housing, Formal Languages and Web Technologies.</t>
-  </si>
-  <si>
-    <t>Dr. A.M.Soujanya</t>
-  </si>
-  <si>
-    <t>DBMS, Operating Systems, Computer Networks, FS.</t>
-  </si>
-  <si>
-    <t>Dr. G.Lavanya Devi</t>
-  </si>
-  <si>
-    <t>Assistant Professor</t>
-  </si>
-  <si>
-    <t>Fuzzy Theory, Data Mining, Bioinformatics, Object Oriented Analysis and Design, Database Systems, Cryptography and Network Security, Algorithm Analysis, Automata Theory, Computer Communication and Networks</t>
-  </si>
-  <si>
-    <t>Qualification</t>
-  </si>
-  <si>
-    <t>Specialization</t>
-  </si>
-  <si>
-    <t>Professor &amp; Addl. Dean (Confidential-Exams)</t>
-  </si>
-  <si>
-    <t>AU College of Engineering for Women</t>
-  </si>
-  <si>
-    <t>Office</t>
-  </si>
-  <si>
-    <t>Faculty</t>
-  </si>
-  <si>
-    <t>QNA</t>
-  </si>
-  <si>
-    <t>Faculty Profile</t>
-  </si>
-  <si>
-    <t>Faculty Count</t>
-  </si>
-  <si>
-    <t>Department List</t>
-  </si>
-  <si>
-    <t>Department Count</t>
-  </si>
-  <si>
-    <t>Faculty List</t>
-  </si>
-  <si>
-    <t>DataSheet</t>
-  </si>
-  <si>
-    <t>Count</t>
-  </si>
-  <si>
-    <t>List</t>
-  </si>
-  <si>
-    <t>Profile</t>
-  </si>
-  <si>
-    <t>Sheet</t>
-  </si>
-  <si>
-    <t>Input</t>
-  </si>
-  <si>
-    <t>Output</t>
-  </si>
-  <si>
-    <t>There are $Count departments in $College.</t>
-  </si>
-  <si>
-    <t>AU Andhra University located</t>
-  </si>
-  <si>
-    <t>AU Andhra University established</t>
-  </si>
-  <si>
-    <t>colleges AU Andhra University</t>
-  </si>
-  <si>
-    <t>Where Visakhapatnam Vizag</t>
-  </si>
-  <si>
-    <t>Visakhapatnam Vizag famous special</t>
-  </si>
-  <si>
-    <t>What are they? List them colleges</t>
-  </si>
-  <si>
-    <t>hi hello hey</t>
-  </si>
-  <si>
-    <t>I am named SmartGPT by my creator Anjani Sowmya.</t>
-  </si>
-  <si>
-    <t>Hello. Nice to meet you.</t>
-  </si>
-  <si>
-    <t>what you</t>
-  </si>
-  <si>
-    <t>list departments</t>
-  </si>
-  <si>
-    <t>departments total count</t>
-  </si>
-  <si>
-    <t>faculty total count</t>
-  </si>
-  <si>
-    <t>faculty list</t>
-  </si>
-  <si>
-    <t>College,Department</t>
-  </si>
-  <si>
-    <t>College,Department,Name,Designation</t>
-  </si>
-  <si>
-    <t>Unique</t>
-  </si>
-  <si>
-    <t>Following are the departments present in $College.$NL$List</t>
-  </si>
-  <si>
-    <t>who you name your</t>
-  </si>
-  <si>
-    <t>Professor &amp; Co-ordinator, IQAC, Chairperson, Board of Studies</t>
-  </si>
-  <si>
-    <t>There are $Count faculty members in $Department department of $College.</t>
-  </si>
-  <si>
-    <t>Following are the faculty present in $Department department of $College.$NL$List</t>
-  </si>
-  <si>
-    <t>$Name is currently working as $Designation in $Department department of $College.</t>
-  </si>
-  <si>
-    <t>faculty profile about</t>
-  </si>
-  <si>
-    <t>departments profile details prof faculty college department about</t>
-  </si>
-  <si>
-    <t>are you smart</t>
-  </si>
-  <si>
-    <t>I am getting smarter day by day ;-)</t>
-  </si>
-  <si>
-    <t>introduce yourself</t>
-  </si>
-  <si>
-    <t>I do help people in finding answers to the questions.</t>
-  </si>
-  <si>
-    <t>Hello, I am SmartGPT. I do help people in finding answers to the questions. I am learning new things and getting smarter day by day ;-)</t>
-  </si>
-  <si>
-    <t>VC Vice Chancellor AU Andhra University</t>
-  </si>
-  <si>
-    <t>Registrar AU Andhra University</t>
-  </si>
-  <si>
-    <t>Rector AU Andhra University</t>
-  </si>
-  <si>
-    <t>know about AU Andhra University</t>
-  </si>
-  <si>
-    <t>hi hello hey located established vice chancellor vc registrar rector colleges where au andhra university who how what your smart introduce yourself do know about</t>
-  </si>
-  <si>
-    <t>Andhra University is one of the oldest educational institutions in the country and also the first university to be conceived as a residential and teaching-cum-affiliating University, mainly devoted to post-graduate teaching and research. Andhra University was constituted in the year 1926 by the Madras Act of 1926. The 94-year-old institution is fortunate to have Sir C.R. Reddy as its founder Vice-Chancellor, as the steps taken by this visionary proved to be fruitful in the long run. Former President of India Dr. Sarvepalli Radhakrishnan was one of its Vice-Chancellors who succeed Dr. C. R. Reddy in 1931. The leaders of the university always believed that excellence in higher education is the best investment for the country and engaged the services of famous educationists such as Dr. T.R. Seshadri, Dr. S. Bhagavantham, Professor Hiren Mukherjee, Professor Humayan Kabir and Dr. V.K.R.V. Rao, to mention a few who set high standards for teaching and research. Nobel Lariat C V Raman was the proud alumnus of the University and closely associated in laying research foundations in Physics. Padmavibhushan Prof. C R Rao, the renowned statistician of the world, was also the proud alumnus of the University. Ever since its inception in 1926 Andhra University has an impeccable record of catering to the educational needs and solving the sociological problems of the region. The University is relentless in its efforts in maintaining standards in teaching and research, ensuring proper character building and development among the students, encouraging community developmental programmes, nurturing leadership in young men and women and imbibing a sense of responsibility to become good citizens, while striving for excellence in all fronts.</t>
-  </si>
-  <si>
-    <t>Andhra University was established in 1926 by the Madras Act of 1926. The 94-year-old institution is fortunate to have Sir C.R. Reddy as its founder Vice-Chancellor, as the steps taken by this visionary proved to be fruitful in the long run.</t>
+    <t>Economics</t>
+  </si>
+  <si>
+    <t>Dr. N. Solomon Benny</t>
+  </si>
+  <si>
+    <t>Age of Shakespeare,American Literature and English language Teaching</t>
+  </si>
+  <si>
+    <t>English</t>
+  </si>
+  <si>
+    <t>Sri. Sistla Srinivas</t>
+  </si>
+  <si>
+    <t>Art History</t>
+  </si>
+  <si>
+    <t>Fine Arts</t>
+  </si>
+  <si>
+    <t>Prof. D.V.R. Murthy</t>
+  </si>
+  <si>
+    <t>Head Of the Department</t>
+  </si>
+  <si>
+    <t>Development, Journalism/Communication Theory, Research Methodology, International Communication.</t>
+  </si>
+  <si>
+    <t>Foreign Languages</t>
+  </si>
+  <si>
+    <t>Prof. N. Satyanarayana</t>
+  </si>
+  <si>
+    <t>Dr. T. Sharon Raju</t>
+  </si>
+  <si>
+    <t>Education</t>
+  </si>
+  <si>
+    <t>Dr. Ch. Madhusudhana Rao</t>
+  </si>
+  <si>
+    <t>History and Archaeology</t>
+  </si>
+  <si>
+    <t>Professor, Head of the Department &amp; Director, Japanese Information and Study Centre</t>
+  </si>
+  <si>
+    <t>Development, Journalism/ Communication Theory, Research Methodology, International Communication.</t>
+  </si>
+  <si>
+    <t>Dr. V. Dhana Raju</t>
+  </si>
+  <si>
+    <t>Assistant Professor &amp; Head of the Department</t>
+  </si>
+  <si>
+    <t>Management of Library &amp; Information Centers, Information Literacy, Information Technology Application in Libraries, Library Automation, Library Net working, Digital Libraries</t>
+  </si>
+  <si>
+    <t>Library and Information Science</t>
+  </si>
+  <si>
+    <t>Prof. A. Anuradha</t>
+  </si>
+  <si>
+    <t>Group Kritis in Telugu after Tyagaraja - and Analytical and Comparative study of them with Tyagaraja's Kritis</t>
+  </si>
+  <si>
+    <t>Music &amp; Dance</t>
+  </si>
+  <si>
+    <t>Dr. B.Ravi Babu</t>
+  </si>
+  <si>
+    <t>Logic</t>
+  </si>
+  <si>
+    <t>Philosophy and Religious Studies</t>
+  </si>
+  <si>
+    <t>Physical Education and Sports Sciences</t>
+  </si>
+  <si>
+    <t>Dr. A.Pallavi</t>
+  </si>
+  <si>
+    <t>Basket Ball &amp; Volleyball Exercise Physiology</t>
+  </si>
+  <si>
+    <t>Assistant Professor&amp; Head of the Department &amp; Assistant Principal College of Arts &amp; Commerce</t>
+  </si>
+  <si>
+    <t>Dr. Peteti Premanandam</t>
+  </si>
+  <si>
+    <t>Associate Professor &amp; I/c Head of the Department</t>
+  </si>
+  <si>
+    <t>Indian Government &amp; Politics</t>
+  </si>
+  <si>
+    <t>Prof. K. Yedukondalu</t>
+  </si>
+  <si>
+    <t>Alankara</t>
+  </si>
+  <si>
+    <t>Sanskrit</t>
+  </si>
+  <si>
+    <t>Specilization in History and Archaeology</t>
+  </si>
+  <si>
+    <t>Education Specilization</t>
+  </si>
+  <si>
+    <t>Hindi Specilization</t>
+  </si>
+  <si>
+    <t>Dr. S. Haranath</t>
+  </si>
+  <si>
+    <t>Community Development</t>
+  </si>
+  <si>
+    <t>Dr. V. Sreemannarayana Murthy</t>
+  </si>
+  <si>
+    <t>Social Demography Social Movements</t>
+  </si>
+  <si>
+    <t>Sociology</t>
+  </si>
+  <si>
+    <t>Prof. J. Appa Rao</t>
+  </si>
+  <si>
+    <t>Telugu</t>
+  </si>
+  <si>
+    <t>Telugu Specilization</t>
+  </si>
+  <si>
+    <t>Prof. K.Venkata Rao</t>
+  </si>
+  <si>
+    <t>Professor of Computer Science &amp; Systems Engineering &amp; Head of the Department</t>
+  </si>
+  <si>
+    <t>Dr. K.Ramesh Babu</t>
+  </si>
+  <si>
+    <t>Hatha Yoga (Practicals &amp; Theory), Meditation</t>
+  </si>
+  <si>
+    <t>Yoga &amp; Consciousness</t>
+  </si>
+  <si>
+    <t>AU College of Science &amp; Technology</t>
+  </si>
+  <si>
+    <t>Applied Mathematics</t>
+  </si>
+  <si>
+    <t>Prof. M.Vijaya Santhi</t>
+  </si>
+  <si>
+    <t>Relativity and cosmology</t>
+  </si>
+  <si>
+    <t>Biochemistry</t>
+  </si>
+  <si>
+    <t>Dr. P. Subhashini Devi</t>
+  </si>
+  <si>
+    <t>Specification in biochemistry</t>
+  </si>
+  <si>
+    <t>Biotechnology</t>
+  </si>
+  <si>
+    <t>Prof. G.Sudhakar</t>
+  </si>
+  <si>
+    <t>Specification in Biotechnology</t>
+  </si>
+  <si>
+    <t>Prof. P.K.Ratna Kumar</t>
+  </si>
+  <si>
+    <t>Fungal Biotechnology</t>
+  </si>
+  <si>
+    <t>Botany</t>
+  </si>
+  <si>
+    <t>Chemistry</t>
+  </si>
+  <si>
+    <t>Dr. P. Shyamala</t>
+  </si>
+  <si>
+    <t>Development of kinetic models for reactions with multiple equilibrium in the presence of micelles and reverse micelles</t>
+  </si>
+  <si>
+    <t>Environmental Sciences</t>
+  </si>
+  <si>
+    <t>Specification in Enironmental Sciences</t>
+  </si>
+  <si>
+    <t>Food analysis</t>
+  </si>
+  <si>
+    <t>Prof G.Sudhakar</t>
+  </si>
+  <si>
+    <t>Food, Nutrition &amp; Dietetics</t>
+  </si>
+  <si>
+    <t>Prof. P.Suneetha</t>
+  </si>
+  <si>
+    <t>Urban Climatology</t>
+  </si>
+  <si>
+    <t>Professor &amp; Head of the Department Chief Warden, Ladies Hostels</t>
+  </si>
+  <si>
+    <t>Geography</t>
+  </si>
+  <si>
+    <t>Prof. K.S.N.Reddy</t>
+  </si>
+  <si>
+    <t>Marine Geology and Placers</t>
+  </si>
+  <si>
+    <t>Geology</t>
+  </si>
+  <si>
+    <t>Geophysics</t>
+  </si>
+  <si>
+    <t>Dr. Shaik Kareemunnisa Begum</t>
+  </si>
+  <si>
+    <t>Magneto Tellurics</t>
+  </si>
+  <si>
+    <t>Human Genetics</t>
+  </si>
+  <si>
+    <t>Genetic Counseling Genetic Engineering Medical Cytogenetics and Human Population Genetics</t>
+  </si>
+  <si>
+    <t>Prof. G. Sudhakar</t>
+  </si>
+  <si>
+    <t>Marine Living Resources</t>
+  </si>
+  <si>
+    <t>Prof. P.Janakiram</t>
+  </si>
+  <si>
+    <t>Fish Pathology and Marine Microbiology</t>
+  </si>
+  <si>
+    <t>Mathematics</t>
+  </si>
+  <si>
+    <t>Dr. G. Nanaji Rao</t>
+  </si>
+  <si>
+    <t>Lattice Theory</t>
+  </si>
+  <si>
+    <t>Meteorology and Oceanography</t>
+  </si>
+  <si>
+    <t>Professor &amp; Chairman BOS for Department of Meteorology and Oceanography &amp; Department of Geo Physics</t>
+  </si>
+  <si>
+    <t>Dr. C.V.Naidu</t>
+  </si>
+  <si>
+    <t>Associate Professor, Head of the Department</t>
+  </si>
+  <si>
+    <t>Air-sea interaction, climate modelling and extreme weather events</t>
+  </si>
+  <si>
+    <t>Tropical Meteorology and Monsoon Dynamics</t>
+  </si>
+  <si>
+    <t>Prof G. Sudhakar</t>
+  </si>
+  <si>
+    <t>Microbiology </t>
+  </si>
+  <si>
+    <t>Specification in Microbiology</t>
+  </si>
+  <si>
+    <t>Nuclear Physics </t>
+  </si>
+  <si>
+    <t>Dr. P.V. Laxminarayana</t>
+  </si>
+  <si>
+    <t>Nuclear Analytical Techniques, Trace Elemental Analysis, Accelerator Mass Spectrometry (AMS)</t>
+  </si>
+  <si>
+    <t>Psychology and Parapsychology</t>
+  </si>
+  <si>
+    <t>Health Org. Behaviour &amp; Counseling</t>
+  </si>
+  <si>
+    <t>Prof. M.V.R.Raju</t>
+  </si>
+  <si>
+    <t>Senior Professor &amp; HOD &amp; Chairman, BOS</t>
+  </si>
+  <si>
+    <t>Physics </t>
+  </si>
+  <si>
+    <t>D.B.Venkatadri</t>
+  </si>
+  <si>
+    <t>Associate Professor &amp; Head of the Department</t>
+  </si>
+  <si>
+    <t>Instrumentation</t>
+  </si>
+  <si>
+    <t>Prof. B.Muniswamy</t>
+  </si>
+  <si>
+    <t>Econometrics, Mathematical Demography, Statistical Inference, Statistical Computing &amp; Bio-Statistics.</t>
+  </si>
+  <si>
+    <t>Statistics</t>
+  </si>
+  <si>
+    <t>Zoology</t>
+  </si>
+  <si>
+    <t>Specializations Marine Biology, Parasitology, Physiology and Fisheries</t>
+  </si>
+  <si>
+    <t>Dr. G. Sireesha</t>
+  </si>
+  <si>
+    <t>Structures</t>
+  </si>
+  <si>
+    <t>Civil Engineering, AUCEW </t>
+  </si>
+  <si>
+    <t>Prof. S. K. Bhatti</t>
+  </si>
+  <si>
+    <t>Head of Department</t>
+  </si>
+  <si>
+    <t>hi hello hey located established vice chancellor vc registrar rector colleges where au andhra university who what your smart introduce yourself do know about</t>
+  </si>
+  <si>
+    <t>Prof. P.Mallikarjuna Rao</t>
+  </si>
+  <si>
+    <t>Political Science and Public Administration</t>
+  </si>
+  <si>
+    <t>Social Work</t>
+  </si>
+  <si>
+    <t>Journalism and Mass Communication</t>
+  </si>
+  <si>
+    <t>Theatre Arts</t>
+  </si>
+  <si>
+    <t>Hindi</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -421,16 +967,49 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF212529"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF3F3F3"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -438,18 +1017,58 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color rgb="FFDEE2E6"/>
+      </left>
+      <right style="medium">
+        <color rgb="FFDEE2E6"/>
+      </right>
+      <top style="medium">
+        <color rgb="FFDEE2E6"/>
+      </top>
+      <bottom style="medium">
+        <color rgb="FFDEE2E6"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="3" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="49" fontId="5" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="49" fontId="5" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -508,7 +1127,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:latin typeface="Calibri Light"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック Light"/>
@@ -543,7 +1162,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック"/>
@@ -727,11 +1346,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DEF7F9EB-044B-432F-A76C-B9394198BD95}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:B4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
+      <selection activeCell="C23" sqref="C23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -750,7 +1369,7 @@
     </row>
     <row r="2" spans="1:2" ht="13.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>120</v>
+        <v>298</v>
       </c>
       <c r="B2" t="s">
         <v>2</v>
@@ -758,7 +1377,7 @@
     </row>
     <row r="3" spans="1:2" ht="13.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="B3" t="s">
         <v>5</v>
@@ -766,10 +1385,10 @@
     </row>
     <row r="4" spans="1:2" ht="13.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>110</v>
+        <v>87</v>
       </c>
       <c r="B4" t="s">
-        <v>71</v>
+        <v>49</v>
       </c>
     </row>
   </sheetData>
@@ -778,11 +1397,11 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AF0C1E3F-0978-4A69-97D8-686D102B94F5}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:B5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D15" sqref="D15"/>
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -804,7 +1423,7 @@
         <v>2</v>
       </c>
       <c r="B2" t="s">
-        <v>72</v>
+        <v>50</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.3">
@@ -812,7 +1431,7 @@
         <v>5</v>
       </c>
       <c r="B3" t="s">
-        <v>72</v>
+        <v>50</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.3">
@@ -820,15 +1439,15 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>72</v>
+        <v>50</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>71</v>
+        <v>49</v>
       </c>
       <c r="B5" t="s">
-        <v>78</v>
+        <v>56</v>
       </c>
     </row>
   </sheetData>
@@ -837,11 +1456,11 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BDA7EAF6-D767-4C93-9528-F87E2BDAF5FF}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:C3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A5" sqref="A5"/>
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -864,24 +1483,24 @@
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>89</v>
+        <v>67</v>
       </c>
       <c r="B2" t="s">
         <v>5</v>
       </c>
       <c r="C2" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>90</v>
+        <v>68</v>
       </c>
       <c r="B3" t="s">
         <v>5</v>
       </c>
       <c r="C3" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
     </row>
   </sheetData>
@@ -890,11 +1509,11 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:C13"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="C8" sqref="C8"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C14" sqref="C14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -917,62 +1536,62 @@
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>92</v>
+        <v>70</v>
       </c>
       <c r="B2" t="s">
         <v>2</v>
       </c>
       <c r="C2" t="s">
-        <v>94</v>
+        <v>72</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="B3" t="s">
         <v>2</v>
       </c>
       <c r="C3" t="s">
-        <v>93</v>
+        <v>71</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>95</v>
+        <v>73</v>
       </c>
       <c r="B4" t="s">
         <v>2</v>
       </c>
       <c r="C4" t="s">
-        <v>114</v>
+        <v>90</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>111</v>
+        <v>101</v>
       </c>
       <c r="B5" t="s">
         <v>2</v>
       </c>
       <c r="C5" t="s">
-        <v>112</v>
+        <v>88</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>113</v>
+        <v>89</v>
       </c>
       <c r="B6" t="s">
         <v>2</v>
       </c>
       <c r="C6" t="s">
-        <v>115</v>
+        <v>91</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
-        <v>86</v>
+        <v>64</v>
       </c>
       <c r="B7" t="s">
         <v>5</v>
@@ -983,68 +1602,68 @@
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
-        <v>87</v>
+        <v>65</v>
       </c>
       <c r="B8" t="s">
         <v>2</v>
       </c>
       <c r="C8" t="s">
-        <v>122</v>
+        <v>97</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
-        <v>116</v>
+        <v>92</v>
       </c>
       <c r="B9" t="s">
         <v>2</v>
       </c>
       <c r="C9" t="s">
-        <v>8</v>
+        <v>127</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
-        <v>117</v>
+        <v>93</v>
       </c>
       <c r="B10" t="s">
         <v>2</v>
       </c>
       <c r="C10" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
-        <v>118</v>
+        <v>94</v>
       </c>
       <c r="B11" t="s">
         <v>2</v>
       </c>
       <c r="C11" t="s">
-        <v>9</v>
+        <v>103</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
-        <v>88</v>
+        <v>66</v>
       </c>
       <c r="B12" t="s">
         <v>3</v>
       </c>
       <c r="C12" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
-        <v>119</v>
+        <v>95</v>
       </c>
       <c r="B13" t="s">
         <v>2</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>121</v>
+        <v>96</v>
       </c>
     </row>
   </sheetData>
@@ -1054,386 +1673,1326 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B483AEFF-F926-4EE7-93DE-F8263CE1F8BB}">
-  <dimension ref="A1:F19"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
+  <dimension ref="A1:H76"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C22" sqref="C22"/>
+    <sheetView tabSelected="1" topLeftCell="A35" workbookViewId="0">
+      <selection activeCell="B42" sqref="B42"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.2" customHeight="1" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="32.21875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="20.77734375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="29" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="52.109375" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="11.44140625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="179.44140625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="32.21875" style="3" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="37.77734375" style="3" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="29" style="3" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="91.6640625" style="3" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="35.88671875" style="3" customWidth="1"/>
+    <col min="6" max="16384" width="8.88671875" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" s="2" customFormat="1" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:5" s="2" customFormat="1" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="D1" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="B1" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="C1" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="D1" s="2" t="s">
+      <c r="E1" s="2" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="E1" s="2" t="s">
-        <v>66</v>
-      </c>
-      <c r="F1" s="2" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A2" t="s">
+      <c r="B2" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="C2" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="D2" s="3" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="B3" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="C3" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="D3" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="E3" s="5" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>99</v>
+      </c>
+      <c r="C4" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="D4" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="E4" s="5" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="B5" s="3" t="s">
+        <v>100</v>
+      </c>
+      <c r="C5" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="D5" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="E5" s="5" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="B6" s="3" t="s">
+        <v>98</v>
+      </c>
+      <c r="C6" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="D6" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="E6" s="5" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="B7" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="B2" t="s">
-        <v>70</v>
-      </c>
-      <c r="C2" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="D2" t="s">
+      <c r="C7" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="D7" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="E7" s="5" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A8" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="B8" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="C8" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="E2" t="s">
+      <c r="D8" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="E8" s="5" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A9" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="B9" s="3" t="s">
+        <v>98</v>
+      </c>
+      <c r="C9" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="D9" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="E9" s="5" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A10" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="B10" s="3" t="s">
+        <v>98</v>
+      </c>
+      <c r="C10" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="D10" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="E10" s="5" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A11" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="B11" s="3" t="s">
+        <v>98</v>
+      </c>
+      <c r="C11" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="D11" s="3" t="s">
+        <v>82</v>
+      </c>
+      <c r="E11" s="5" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A12" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="B12" s="3" t="s">
+        <v>98</v>
+      </c>
+      <c r="C12" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="D12" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="E12" s="5" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A13" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="B13" s="3" t="s">
+        <v>98</v>
+      </c>
+      <c r="C13" s="3" t="s">
         <v>38</v>
       </c>
-    </row>
-    <row r="3" spans="1:6" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A3" t="s">
-        <v>20</v>
-      </c>
-      <c r="B3" t="s">
-        <v>21</v>
-      </c>
-      <c r="C3" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="D3" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="E3" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A4" t="s">
-        <v>20</v>
-      </c>
-      <c r="B4" t="s">
-        <v>22</v>
-      </c>
-      <c r="C4" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="D4" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="E4" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A5" t="s">
-        <v>20</v>
-      </c>
-      <c r="B5" t="s">
-        <v>23</v>
-      </c>
-      <c r="C5" s="1" t="s">
+      <c r="D13" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="E13" s="5" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A14" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="B14" s="3" t="s">
+        <v>98</v>
+      </c>
+      <c r="C14" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="D14" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="E14" s="5" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A15" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="B15" s="3" t="s">
+        <v>98</v>
+      </c>
+      <c r="C15" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="D15" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="E15" s="5" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A16" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="B16" s="3" t="s">
+        <v>98</v>
+      </c>
+      <c r="C16" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="D16" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="E16" s="5" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A17" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="B17" s="3" t="s">
+        <v>98</v>
+      </c>
+      <c r="C17" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="D17" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="E17" s="5" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A18" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="B18" s="3" t="s">
+        <v>98</v>
+      </c>
+      <c r="C18" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="D18" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="E18" s="5" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" ht="19.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A19" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="B19" s="3" t="s">
+        <v>98</v>
+      </c>
+      <c r="C19" s="6" t="s">
+        <v>35</v>
+      </c>
+      <c r="D19" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="E19" s="5" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A20" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="B20" s="3" t="s">
+        <v>113</v>
+      </c>
+      <c r="C20" s="12" t="s">
+        <v>299</v>
+      </c>
+      <c r="D20" s="5" t="s">
+        <v>106</v>
+      </c>
+      <c r="E20" s="3" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A21" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="B21" s="3" t="s">
+        <v>113</v>
+      </c>
+      <c r="C21" s="12" t="s">
+        <v>108</v>
+      </c>
+      <c r="D21" s="5" t="s">
+        <v>111</v>
+      </c>
+      <c r="E21" s="5" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A22" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="B22" s="3" t="s">
+        <v>113</v>
+      </c>
+      <c r="C22" s="12" t="s">
+        <v>109</v>
+      </c>
+      <c r="D22" s="5" t="s">
+        <v>110</v>
+      </c>
+      <c r="E22" s="5" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A23" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="B23" s="5" t="s">
+        <v>132</v>
+      </c>
+      <c r="C23" s="12" t="s">
+        <v>133</v>
+      </c>
+      <c r="D23" s="5" t="s">
+        <v>105</v>
+      </c>
+      <c r="E23" s="5" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" ht="16.2" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A24" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="B24" s="5" t="s">
+        <v>132</v>
+      </c>
+      <c r="C24" s="12" t="s">
+        <v>134</v>
+      </c>
+      <c r="D24" s="5" t="s">
+        <v>137</v>
+      </c>
+      <c r="E24" s="5" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" ht="16.2" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A25" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="B25" s="5" t="s">
+        <v>141</v>
+      </c>
+      <c r="C25" s="12" t="s">
+        <v>138</v>
+      </c>
+      <c r="D25" s="7" t="s">
+        <v>139</v>
+      </c>
+      <c r="E25" s="5" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A26" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="B26" s="5" t="s">
+        <v>145</v>
+      </c>
+      <c r="C26" s="12" t="s">
+        <v>142</v>
+      </c>
+      <c r="D26" s="5" t="s">
+        <v>143</v>
+      </c>
+      <c r="E26" s="5" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A27" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="B27" s="5" t="s">
+        <v>148</v>
+      </c>
+      <c r="C27" s="12" t="s">
+        <v>146</v>
+      </c>
+      <c r="D27" s="5" t="s">
+        <v>105</v>
+      </c>
+      <c r="E27" s="5" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" ht="16.2" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A28" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="B28" s="5" t="s">
+        <v>151</v>
+      </c>
+      <c r="C28" s="12" t="s">
+        <v>149</v>
+      </c>
+      <c r="D28" s="5" t="s">
+        <v>105</v>
+      </c>
+      <c r="E28" s="5" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5" ht="16.2" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A29" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="B29" s="3" t="s">
+        <v>154</v>
+      </c>
+      <c r="C29" s="12" t="s">
+        <v>152</v>
+      </c>
+      <c r="D29" s="7" t="s">
+        <v>139</v>
+      </c>
+      <c r="E29" s="5" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A30" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="B30" s="5" t="s">
+        <v>157</v>
+      </c>
+      <c r="C30" s="12" t="s">
+        <v>155</v>
+      </c>
+      <c r="D30" s="5" t="s">
+        <v>105</v>
+      </c>
+      <c r="E30" s="5" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5" ht="16.2" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A31" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="B31" s="5" t="s">
+        <v>160</v>
+      </c>
+      <c r="C31" s="12" t="s">
+        <v>158</v>
+      </c>
+      <c r="D31" s="5" t="s">
+        <v>105</v>
+      </c>
+      <c r="E31" s="5" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5" ht="16.2" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A32" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="B32" s="5" t="s">
+        <v>163</v>
+      </c>
+      <c r="C32" s="12" t="s">
+        <v>161</v>
+      </c>
+      <c r="D32" s="7" t="s">
+        <v>139</v>
+      </c>
+      <c r="E32" s="5" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="33" spans="1:8" ht="16.2" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A33" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="B33" s="8" t="s">
+        <v>295</v>
+      </c>
+      <c r="C33" s="12" t="s">
+        <v>293</v>
+      </c>
+      <c r="D33" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="E33" s="10" t="s">
+        <v>294</v>
+      </c>
+      <c r="F33" s="10"/>
+      <c r="G33" s="10"/>
+    </row>
+    <row r="34" spans="1:8" ht="16.2" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A34" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="B34" s="8" t="s">
+        <v>148</v>
+      </c>
+      <c r="C34" s="12" t="s">
+        <v>296</v>
+      </c>
+      <c r="D34" s="9" t="s">
+        <v>297</v>
+      </c>
+      <c r="E34" s="9" t="s">
+        <v>147</v>
+      </c>
+      <c r="F34" s="10"/>
+      <c r="G34" s="10"/>
+    </row>
+    <row r="35" spans="1:8" ht="16.2" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A35" s="8" t="s">
+        <v>164</v>
+      </c>
+      <c r="B35" s="5" t="s">
+        <v>167</v>
+      </c>
+      <c r="C35" s="12" t="s">
+        <v>165</v>
+      </c>
+      <c r="D35" s="7" t="s">
+        <v>139</v>
+      </c>
+      <c r="E35" s="5" t="s">
+        <v>166</v>
+      </c>
+      <c r="F35" s="10"/>
+      <c r="G35" s="10"/>
+      <c r="H35" s="10"/>
+    </row>
+    <row r="36" spans="1:8" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A36" s="8" t="s">
+        <v>164</v>
+      </c>
+      <c r="B36" s="5" t="s">
+        <v>171</v>
+      </c>
+      <c r="C36" s="8" t="s">
+        <v>168</v>
+      </c>
+      <c r="D36" s="5" t="s">
+        <v>170</v>
+      </c>
+      <c r="E36" s="5" t="s">
+        <v>169</v>
+      </c>
+      <c r="F36" s="10"/>
+      <c r="G36" s="10"/>
+      <c r="H36" s="10"/>
+    </row>
+    <row r="37" spans="1:8" ht="16.2" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A37" s="8" t="s">
+        <v>164</v>
+      </c>
+      <c r="B37" s="5" t="s">
+        <v>174</v>
+      </c>
+      <c r="C37" s="12" t="s">
+        <v>172</v>
+      </c>
+      <c r="D37" s="5" t="s">
+        <v>105</v>
+      </c>
+      <c r="E37" s="5" t="s">
+        <v>173</v>
+      </c>
+      <c r="F37" s="10"/>
+      <c r="G37" s="10"/>
+      <c r="H37" s="10"/>
+    </row>
+    <row r="38" spans="1:8" ht="16.2" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A38" s="8" t="s">
+        <v>164</v>
+      </c>
+      <c r="B38" s="5" t="s">
+        <v>177</v>
+      </c>
+      <c r="C38" s="8" t="s">
+        <v>175</v>
+      </c>
+      <c r="D38" s="7" t="s">
+        <v>139</v>
+      </c>
+      <c r="E38" s="8" t="s">
+        <v>176</v>
+      </c>
+      <c r="F38" s="10"/>
+      <c r="G38" s="10"/>
+      <c r="H38" s="10"/>
+    </row>
+    <row r="39" spans="1:8" ht="16.2" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A39" s="8" t="s">
+        <v>164</v>
+      </c>
+      <c r="B39" s="5" t="s">
+        <v>180</v>
+      </c>
+      <c r="C39" s="8" t="s">
+        <v>178</v>
+      </c>
+      <c r="D39" s="7" t="s">
+        <v>139</v>
+      </c>
+      <c r="E39" s="5" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="40" spans="1:8" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A40" s="8" t="s">
+        <v>164</v>
+      </c>
+      <c r="B40" s="5" t="s">
+        <v>184</v>
+      </c>
+      <c r="C40" s="12" t="s">
+        <v>181</v>
+      </c>
+      <c r="D40" s="5" t="s">
+        <v>182</v>
+      </c>
+      <c r="E40" s="5" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="41" spans="1:8" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A41" s="3" t="s">
+        <v>164</v>
+      </c>
+      <c r="B41" s="5" t="s">
+        <v>304</v>
+      </c>
+      <c r="C41" s="12" t="s">
+        <v>185</v>
+      </c>
+      <c r="D41" s="5" t="s">
+        <v>105</v>
+      </c>
+      <c r="E41" s="5" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="42" spans="1:8" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A42" s="3" t="s">
+        <v>164</v>
+      </c>
+      <c r="B42" s="5" t="s">
+        <v>187</v>
+      </c>
+      <c r="C42" s="8" t="s">
+        <v>186</v>
+      </c>
+      <c r="D42" s="5" t="s">
+        <v>182</v>
+      </c>
+      <c r="E42" s="5" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="43" spans="1:8" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A43" s="3" t="s">
+        <v>164</v>
+      </c>
+      <c r="B43" s="5" t="s">
+        <v>189</v>
+      </c>
+      <c r="C43" s="5" t="s">
+        <v>188</v>
+      </c>
+      <c r="D43" s="5" t="s">
+        <v>182</v>
+      </c>
+      <c r="E43" s="10" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="44" spans="1:8" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A44" s="3" t="s">
+        <v>164</v>
+      </c>
+      <c r="B44" s="5" t="s">
+        <v>302</v>
+      </c>
+      <c r="C44" s="12" t="s">
+        <v>181</v>
+      </c>
+      <c r="D44" s="5" t="s">
+        <v>190</v>
+      </c>
+      <c r="E44" s="5" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="45" spans="1:8" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A45" s="3" t="s">
+        <v>164</v>
+      </c>
+      <c r="B45" s="5" t="s">
+        <v>195</v>
+      </c>
+      <c r="C45" s="12" t="s">
+        <v>192</v>
+      </c>
+      <c r="D45" s="5" t="s">
+        <v>193</v>
+      </c>
+      <c r="E45" s="5" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="46" spans="1:8" ht="16.2" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A46" s="3" t="s">
+        <v>164</v>
+      </c>
+      <c r="B46" s="5" t="s">
+        <v>198</v>
+      </c>
+      <c r="C46" s="12" t="s">
+        <v>196</v>
+      </c>
+      <c r="D46" s="5" t="s">
+        <v>105</v>
+      </c>
+      <c r="E46" s="5" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="47" spans="1:8" ht="16.2" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A47" s="3" t="s">
+        <v>164</v>
+      </c>
+      <c r="B47" s="5" t="s">
+        <v>201</v>
+      </c>
+      <c r="C47" s="12" t="s">
+        <v>199</v>
+      </c>
+      <c r="D47" s="7" t="s">
+        <v>139</v>
+      </c>
+      <c r="E47" s="5" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="48" spans="1:8" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A48" s="3" t="s">
+        <v>164</v>
+      </c>
+      <c r="B48" s="5" t="s">
+        <v>202</v>
+      </c>
+      <c r="C48" s="12" t="s">
+        <v>203</v>
+      </c>
+      <c r="D48" s="5" t="s">
+        <v>205</v>
+      </c>
+      <c r="E48" s="5" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="49" spans="1:5" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A49" s="3" t="s">
+        <v>164</v>
+      </c>
+      <c r="B49" s="5" t="s">
+        <v>300</v>
+      </c>
+      <c r="C49" s="12" t="s">
+        <v>206</v>
+      </c>
+      <c r="D49" s="5" t="s">
+        <v>207</v>
+      </c>
+      <c r="E49" s="5" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="50" spans="1:5" ht="16.2" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A50" s="3" t="s">
+        <v>164</v>
+      </c>
+      <c r="B50" s="5" t="s">
+        <v>211</v>
+      </c>
+      <c r="C50" s="8" t="s">
+        <v>209</v>
+      </c>
+      <c r="D50" s="5" t="s">
         <v>32</v>
       </c>
-      <c r="D5" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="E5" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A6" t="s">
-        <v>20</v>
-      </c>
-      <c r="B6" t="s">
-        <v>24</v>
-      </c>
-      <c r="C6" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="D6" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="E6" t="s">
-        <v>38</v>
-      </c>
-      <c r="F6" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A7" t="s">
-        <v>20</v>
-      </c>
-      <c r="B7" t="s">
+      <c r="E50" s="5" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="51" spans="1:5" ht="16.2" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A51" s="3" t="s">
+        <v>164</v>
+      </c>
+      <c r="B51" s="5" t="s">
+        <v>301</v>
+      </c>
+      <c r="C51" s="12" t="s">
+        <v>215</v>
+      </c>
+      <c r="D51" s="7" t="s">
+        <v>139</v>
+      </c>
+      <c r="E51" s="5" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="52" spans="1:5" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A52" s="3" t="s">
+        <v>164</v>
+      </c>
+      <c r="B52" s="5" t="s">
+        <v>219</v>
+      </c>
+      <c r="C52" s="12" t="s">
+        <v>217</v>
+      </c>
+      <c r="D52" s="5" t="s">
+        <v>193</v>
+      </c>
+      <c r="E52" s="5" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="53" spans="1:5" s="10" customFormat="1" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A53" s="10" t="s">
+        <v>164</v>
+      </c>
+      <c r="B53" s="5" t="s">
+        <v>221</v>
+      </c>
+      <c r="C53" s="12" t="s">
+        <v>220</v>
+      </c>
+      <c r="D53" s="5" t="s">
+        <v>105</v>
+      </c>
+      <c r="E53" s="5" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="54" spans="1:5" s="10" customFormat="1" ht="16.2" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A54" s="10" t="s">
+        <v>164</v>
+      </c>
+      <c r="B54" s="5" t="s">
+        <v>303</v>
+      </c>
+      <c r="C54" s="12" t="s">
+        <v>223</v>
+      </c>
+      <c r="D54" s="5" t="s">
+        <v>224</v>
+      </c>
+      <c r="E54" s="5" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="55" spans="1:5" s="10" customFormat="1" ht="16.2" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A55" s="10" t="s">
+        <v>164</v>
+      </c>
+      <c r="B55" s="5" t="s">
+        <v>227</v>
+      </c>
+      <c r="C55" s="12" t="s">
+        <v>225</v>
+      </c>
+      <c r="D55" s="7" t="s">
+        <v>139</v>
+      </c>
+      <c r="E55" s="5" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="56" spans="1:5" ht="16.2" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A56" s="3" t="s">
+        <v>228</v>
+      </c>
+      <c r="B56" s="5" t="s">
+        <v>229</v>
+      </c>
+      <c r="C56" s="11" t="s">
+        <v>230</v>
+      </c>
+      <c r="D56" s="5" t="s">
+        <v>105</v>
+      </c>
+      <c r="E56" s="5" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="57" spans="1:5" ht="16.2" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A57" s="3" t="s">
+        <v>228</v>
+      </c>
+      <c r="B57" s="5" t="s">
+        <v>232</v>
+      </c>
+      <c r="C57" s="12" t="s">
+        <v>233</v>
+      </c>
+      <c r="D57" s="7" t="s">
+        <v>139</v>
+      </c>
+      <c r="E57" s="5" t="s">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="58" spans="1:5" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A58" s="3" t="s">
+        <v>228</v>
+      </c>
+      <c r="B58" s="5" t="s">
+        <v>235</v>
+      </c>
+      <c r="C58" s="8" t="s">
+        <v>236</v>
+      </c>
+      <c r="D58" s="5" t="s">
         <v>25</v>
       </c>
-      <c r="C7" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="D7" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="E7" t="s">
-        <v>38</v>
-      </c>
-      <c r="F7" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A8" t="s">
-        <v>20</v>
-      </c>
-      <c r="B8" t="s">
-        <v>26</v>
-      </c>
-      <c r="C8" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="D8" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="E8" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A9" t="s">
-        <v>20</v>
-      </c>
-      <c r="B9" t="s">
-        <v>24</v>
-      </c>
-      <c r="C9" t="s">
-        <v>36</v>
-      </c>
-      <c r="D9" t="s">
-        <v>37</v>
-      </c>
-      <c r="E9" t="s">
-        <v>38</v>
-      </c>
-      <c r="F9" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A10" t="s">
-        <v>20</v>
-      </c>
-      <c r="B10" t="s">
-        <v>24</v>
-      </c>
-      <c r="C10" t="s">
-        <v>40</v>
-      </c>
-      <c r="D10" t="s">
-        <v>37</v>
-      </c>
-      <c r="E10" t="s">
-        <v>41</v>
-      </c>
-      <c r="F10" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A11" t="s">
-        <v>20</v>
-      </c>
-      <c r="B11" t="s">
-        <v>24</v>
-      </c>
-      <c r="C11" t="s">
-        <v>43</v>
-      </c>
-      <c r="D11" t="s">
+      <c r="E58" s="5" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="59" spans="1:5" ht="16.2" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A59" s="3" t="s">
+        <v>228</v>
+      </c>
+      <c r="B59" s="5" t="s">
+        <v>240</v>
+      </c>
+      <c r="C59" s="12" t="s">
+        <v>238</v>
+      </c>
+      <c r="D59" s="5" t="s">
         <v>105</v>
       </c>
-      <c r="E11" t="s">
-        <v>38</v>
-      </c>
-      <c r="F11" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A12" t="s">
-        <v>20</v>
-      </c>
-      <c r="B12" t="s">
-        <v>24</v>
-      </c>
-      <c r="C12" t="s">
-        <v>49</v>
-      </c>
-      <c r="D12" t="s">
-        <v>37</v>
-      </c>
-      <c r="E12" t="s">
-        <v>41</v>
-      </c>
-      <c r="F12" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A13" t="s">
-        <v>20</v>
-      </c>
-      <c r="B13" t="s">
-        <v>24</v>
-      </c>
-      <c r="C13" t="s">
-        <v>51</v>
-      </c>
-      <c r="D13" t="s">
-        <v>68</v>
-      </c>
-      <c r="E13" t="s">
-        <v>38</v>
-      </c>
-      <c r="F13" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="14" spans="1:6" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A14" t="s">
-        <v>20</v>
-      </c>
-      <c r="B14" t="s">
-        <v>24</v>
-      </c>
-      <c r="C14" t="s">
-        <v>54</v>
-      </c>
-      <c r="D14" t="s">
-        <v>55</v>
-      </c>
-      <c r="E14" t="s">
-        <v>38</v>
-      </c>
-      <c r="F14" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="15" spans="1:6" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A15" t="s">
-        <v>20</v>
-      </c>
-      <c r="B15" t="s">
-        <v>24</v>
-      </c>
-      <c r="C15" t="s">
-        <v>57</v>
-      </c>
-      <c r="D15" t="s">
-        <v>55</v>
-      </c>
-      <c r="E15" t="s">
-        <v>38</v>
-      </c>
-      <c r="F15" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="16" spans="1:6" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A16" t="s">
-        <v>20</v>
-      </c>
-      <c r="B16" t="s">
-        <v>24</v>
-      </c>
-      <c r="C16" t="s">
-        <v>59</v>
-      </c>
-      <c r="D16" t="s">
-        <v>55</v>
-      </c>
-      <c r="E16" t="s">
-        <v>38</v>
-      </c>
-      <c r="F16" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="17" spans="1:6" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A17" t="s">
-        <v>20</v>
-      </c>
-      <c r="B17" t="s">
-        <v>24</v>
-      </c>
-      <c r="C17" t="s">
-        <v>61</v>
-      </c>
-      <c r="D17" t="s">
-        <v>55</v>
-      </c>
-      <c r="E17" t="s">
-        <v>38</v>
-      </c>
-      <c r="F17" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="18" spans="1:6" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A18" t="s">
-        <v>20</v>
-      </c>
-      <c r="B18" t="s">
-        <v>24</v>
-      </c>
-      <c r="C18" t="s">
-        <v>63</v>
-      </c>
-      <c r="D18" t="s">
-        <v>64</v>
-      </c>
-      <c r="E18" t="s">
-        <v>38</v>
-      </c>
-      <c r="F18" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="19" spans="1:6" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A19" t="s">
-        <v>69</v>
-      </c>
-      <c r="B19" t="s">
-        <v>24</v>
-      </c>
-      <c r="C19" t="s">
-        <v>45</v>
-      </c>
-      <c r="D19" t="s">
-        <v>46</v>
-      </c>
-      <c r="E19" t="s">
-        <v>38</v>
-      </c>
-      <c r="F19" t="s">
-        <v>47</v>
+      <c r="E59" s="5" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="60" spans="1:5" ht="16.2" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A60" s="3" t="s">
+        <v>228</v>
+      </c>
+      <c r="B60" s="5" t="s">
+        <v>241</v>
+      </c>
+      <c r="C60" s="12" t="s">
+        <v>242</v>
+      </c>
+      <c r="D60" s="7" t="s">
+        <v>139</v>
+      </c>
+      <c r="E60" s="5" t="s">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="61" spans="1:5" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A61" s="3" t="s">
+        <v>228</v>
+      </c>
+      <c r="B61" s="5" t="s">
+        <v>244</v>
+      </c>
+      <c r="C61" s="8" t="s">
+        <v>233</v>
+      </c>
+      <c r="D61" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="E61" s="5" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="62" spans="1:5" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A62" s="3" t="s">
+        <v>228</v>
+      </c>
+      <c r="B62" s="5" t="s">
+        <v>248</v>
+      </c>
+      <c r="C62" s="8" t="s">
+        <v>247</v>
+      </c>
+      <c r="D62" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="E62" s="5" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="63" spans="1:5" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A63" s="3" t="s">
+        <v>228</v>
+      </c>
+      <c r="B63" s="5" t="s">
+        <v>252</v>
+      </c>
+      <c r="C63" s="12" t="s">
+        <v>249</v>
+      </c>
+      <c r="D63" s="5" t="s">
+        <v>251</v>
+      </c>
+      <c r="E63" s="5" t="s">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="64" spans="1:5" ht="16.2" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A64" s="3" t="s">
+        <v>228</v>
+      </c>
+      <c r="B64" s="5" t="s">
+        <v>255</v>
+      </c>
+      <c r="C64" s="12" t="s">
+        <v>253</v>
+      </c>
+      <c r="D64" s="5" t="s">
+        <v>105</v>
+      </c>
+      <c r="E64" s="5" t="s">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="65" spans="1:5" ht="16.2" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A65" s="3" t="s">
+        <v>228</v>
+      </c>
+      <c r="B65" s="5" t="s">
+        <v>256</v>
+      </c>
+      <c r="C65" s="12" t="s">
+        <v>257</v>
+      </c>
+      <c r="D65" s="7" t="s">
+        <v>139</v>
+      </c>
+      <c r="E65" s="5" t="s">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="66" spans="1:5" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A66" s="3" t="s">
+        <v>228</v>
+      </c>
+      <c r="B66" s="5" t="s">
+        <v>259</v>
+      </c>
+      <c r="C66" s="12" t="s">
+        <v>261</v>
+      </c>
+      <c r="D66" s="5" t="s">
+        <v>105</v>
+      </c>
+      <c r="E66" s="5" t="s">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="67" spans="1:5" ht="16.2" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A67" s="3" t="s">
+        <v>228</v>
+      </c>
+      <c r="B67" s="5" t="s">
+        <v>262</v>
+      </c>
+      <c r="C67" s="12" t="s">
+        <v>263</v>
+      </c>
+      <c r="D67" s="5" t="s">
+        <v>105</v>
+      </c>
+      <c r="E67" s="5" t="s">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="68" spans="1:5" ht="16.2" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A68" s="3" t="s">
+        <v>228</v>
+      </c>
+      <c r="B68" s="5" t="s">
+        <v>265</v>
+      </c>
+      <c r="C68" s="12" t="s">
+        <v>266</v>
+      </c>
+      <c r="D68" s="7" t="s">
+        <v>139</v>
+      </c>
+      <c r="E68" s="5" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="69" spans="1:5" ht="16.2" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A69" s="3" t="s">
+        <v>228</v>
+      </c>
+      <c r="B69" s="5" t="s">
+        <v>268</v>
+      </c>
+      <c r="C69" s="12" t="s">
+        <v>249</v>
+      </c>
+      <c r="D69" s="7" t="s">
+        <v>269</v>
+      </c>
+      <c r="E69" s="5" t="s">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="70" spans="1:5" ht="16.2" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A70" s="3" t="s">
+        <v>228</v>
+      </c>
+      <c r="B70" s="5" t="s">
+        <v>268</v>
+      </c>
+      <c r="C70" s="12" t="s">
+        <v>270</v>
+      </c>
+      <c r="D70" s="7" t="s">
+        <v>271</v>
+      </c>
+      <c r="E70" s="5" t="s">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="71" spans="1:5" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A71" s="3" t="s">
+        <v>228</v>
+      </c>
+      <c r="B71" s="5" t="s">
+        <v>275</v>
+      </c>
+      <c r="C71" s="8" t="s">
+        <v>274</v>
+      </c>
+      <c r="D71" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="E71" s="5" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="72" spans="1:5" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A72" s="3" t="s">
+        <v>228</v>
+      </c>
+      <c r="B72" s="5" t="s">
+        <v>277</v>
+      </c>
+      <c r="C72" s="12" t="s">
+        <v>278</v>
+      </c>
+      <c r="D72" s="5" t="s">
+        <v>193</v>
+      </c>
+      <c r="E72" s="5" t="s">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="73" spans="1:5" ht="16.2" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A73" s="3" t="s">
+        <v>228</v>
+      </c>
+      <c r="B73" s="5" t="s">
+        <v>280</v>
+      </c>
+      <c r="C73" s="12" t="s">
+        <v>282</v>
+      </c>
+      <c r="D73" s="5" t="s">
+        <v>283</v>
+      </c>
+      <c r="E73" s="5" t="s">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="74" spans="1:5" ht="16.2" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A74" s="3" t="s">
+        <v>228</v>
+      </c>
+      <c r="B74" s="5" t="s">
+        <v>284</v>
+      </c>
+      <c r="C74" s="12" t="s">
+        <v>285</v>
+      </c>
+      <c r="D74" s="7" t="s">
+        <v>286</v>
+      </c>
+      <c r="E74" s="5" t="s">
+        <v>287</v>
+      </c>
+    </row>
+    <row r="75" spans="1:5" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A75" s="3" t="s">
+        <v>228</v>
+      </c>
+      <c r="B75" s="5" t="s">
+        <v>290</v>
+      </c>
+      <c r="C75" s="12" t="s">
+        <v>288</v>
+      </c>
+      <c r="D75" s="5" t="s">
+        <v>105</v>
+      </c>
+      <c r="E75" s="5" t="s">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="76" spans="1:5" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A76" s="3" t="s">
+        <v>228</v>
+      </c>
+      <c r="B76" s="5" t="s">
+        <v>291</v>
+      </c>
+      <c r="C76" s="8" t="s">
+        <v>263</v>
+      </c>
+      <c r="D76" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="E76" s="5" t="s">
+        <v>292</v>
       </c>
     </row>
   </sheetData>
@@ -1443,11 +3002,11 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DF375775-692B-46A2-B001-F734C853D46A}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <dimension ref="A1:C2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A3" sqref="A3:XFD3"/>
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1470,13 +3029,13 @@
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>91</v>
+        <v>69</v>
       </c>
       <c r="B2" t="s">
         <v>3</v>
       </c>
       <c r="C2" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
     </row>
   </sheetData>
@@ -1485,11 +3044,11 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{13334AB7-7745-4CAC-A4CE-24C06FF18E75}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
   <dimension ref="A1:G6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A7" sqref="A7"/>
+      <selection activeCell="F20" sqref="F20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1506,137 +3065,137 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="C1" t="s">
         <v>1</v>
       </c>
       <c r="D1" t="s">
-        <v>82</v>
+        <v>60</v>
       </c>
       <c r="E1" t="s">
-        <v>83</v>
+        <v>61</v>
       </c>
       <c r="F1" t="s">
-        <v>84</v>
+        <v>62</v>
       </c>
       <c r="G1" t="s">
-        <v>102</v>
+        <v>80</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>97</v>
+        <v>75</v>
       </c>
       <c r="B2" t="s">
-        <v>76</v>
+        <v>54</v>
       </c>
       <c r="C2" t="s">
-        <v>79</v>
+        <v>57</v>
       </c>
       <c r="D2" t="s">
-        <v>71</v>
+        <v>49</v>
       </c>
       <c r="E2" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="F2" t="s">
-        <v>85</v>
+        <v>63</v>
       </c>
       <c r="G2" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>96</v>
+        <v>74</v>
       </c>
       <c r="B3" t="s">
-        <v>75</v>
+        <v>53</v>
       </c>
       <c r="C3" t="s">
-        <v>80</v>
+        <v>58</v>
       </c>
       <c r="D3" t="s">
-        <v>71</v>
+        <v>49</v>
       </c>
       <c r="E3" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="F3" t="s">
-        <v>103</v>
+        <v>81</v>
       </c>
       <c r="G3" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>98</v>
+        <v>76</v>
       </c>
       <c r="B4" t="s">
-        <v>74</v>
+        <v>52</v>
       </c>
       <c r="C4" t="s">
-        <v>79</v>
+        <v>57</v>
       </c>
       <c r="D4" t="s">
-        <v>71</v>
+        <v>49</v>
       </c>
       <c r="E4" t="s">
-        <v>100</v>
+        <v>78</v>
       </c>
       <c r="F4" t="s">
-        <v>106</v>
+        <v>83</v>
       </c>
       <c r="G4" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>99</v>
+        <v>77</v>
       </c>
       <c r="B5" t="s">
-        <v>77</v>
+        <v>55</v>
       </c>
       <c r="C5" t="s">
-        <v>80</v>
+        <v>58</v>
       </c>
       <c r="D5" t="s">
-        <v>71</v>
+        <v>49</v>
       </c>
       <c r="E5" t="s">
-        <v>100</v>
+        <v>78</v>
       </c>
       <c r="F5" t="s">
-        <v>107</v>
+        <v>84</v>
       </c>
       <c r="G5" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>109</v>
+        <v>86</v>
       </c>
       <c r="B6" t="s">
-        <v>73</v>
+        <v>51</v>
       </c>
       <c r="C6" t="s">
-        <v>81</v>
+        <v>59</v>
       </c>
       <c r="D6" t="s">
-        <v>71</v>
+        <v>49</v>
       </c>
       <c r="E6" t="s">
-        <v>101</v>
+        <v>79</v>
       </c>
       <c r="F6" t="s">
-        <v>108</v>
+        <v>85</v>
       </c>
       <c r="G6" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
     </row>
   </sheetData>

--- a/gptdata.xlsx
+++ b/gptdata.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Projects\SmartGPT\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{866E64E0-27D2-47BE-B729-06E144E98D9A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B38C4D28-0F61-4A64-BA70-E5A2BF74B300}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-96" yWindow="0" windowWidth="11712" windowHeight="12336" tabRatio="762" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-96" yWindow="0" windowWidth="11712" windowHeight="12336" tabRatio="762" firstSheet="2" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Relevance" sheetId="4" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="493" uniqueCount="305">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="494" uniqueCount="306">
   <si>
     <t>Question</t>
   </si>
@@ -270,9 +270,6 @@
     <t>College,Department</t>
   </si>
   <si>
-    <t>College,Department,Name,Designation</t>
-  </si>
-  <si>
     <t>Unique</t>
   </si>
   <si>
@@ -288,9 +285,6 @@
     <t>Following are the faculty present in $Department department of $College.$NL$List</t>
   </si>
   <si>
-    <t>$Name is currently working as $Designation in $Department department of $College.</t>
-  </si>
-  <si>
     <t>faculty profile about</t>
   </si>
   <si>
@@ -946,6 +940,15 @@
   </si>
   <si>
     <t>Hindi</t>
+  </si>
+  <si>
+    <t>GPS, Communications</t>
+  </si>
+  <si>
+    <t>College,Department,Name,Designation,Specialization</t>
+  </si>
+  <si>
+    <t>&lt;B&gt; $Name &lt;/B&gt; is currently working as $Designation in $Department department of $College.$NL Specializations: $NL $Specialization</t>
   </si>
 </sst>
 </file>
@@ -1046,7 +1049,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
@@ -1066,6 +1069,9 @@
     <xf numFmtId="49" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="49" fontId="5" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -1349,43 +1355,43 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:B4"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C23" sqref="C23"/>
+    <sheetView zoomScale="109" workbookViewId="0">
+      <selection activeCell="E27" sqref="E27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="123.109375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="65.77734375" style="13" customWidth="1"/>
     <col min="2" max="2" width="13.21875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A1" t="s">
+      <c r="A1" s="13" t="s">
         <v>0</v>
       </c>
       <c r="B1" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:2" ht="13.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A2" t="s">
-        <v>298</v>
+    <row r="2" spans="1:2" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A2" s="13" t="s">
+        <v>296</v>
       </c>
       <c r="B2" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="3" spans="1:2" ht="13.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A3" t="s">
+      <c r="A3" s="13" t="s">
         <v>12</v>
       </c>
       <c r="B3" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="4" spans="1:2" ht="13.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A4" t="s">
-        <v>87</v>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A4" s="13" t="s">
+        <v>85</v>
       </c>
       <c r="B4" t="s">
         <v>49</v>
@@ -1400,8 +1406,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:B5"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+    <sheetView zoomScale="115" workbookViewId="0">
+      <selection activeCell="L26" sqref="L26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1512,8 +1518,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:C13"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C14" sqref="C14"/>
+    <sheetView zoomScale="99" workbookViewId="0">
+      <selection activeCell="D20" sqref="D20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1547,7 +1553,7 @@
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="B3" t="s">
         <v>2</v>
@@ -1564,29 +1570,29 @@
         <v>2</v>
       </c>
       <c r="C4" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="B5" t="s">
         <v>2</v>
       </c>
       <c r="C5" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="B6" t="s">
         <v>2</v>
       </c>
       <c r="C6" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.3">
@@ -1608,23 +1614,23 @@
         <v>2</v>
       </c>
       <c r="C8" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="B9" t="s">
         <v>2</v>
       </c>
       <c r="C9" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="B10" t="s">
         <v>2</v>
@@ -1635,13 +1641,13 @@
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="B11" t="s">
         <v>2</v>
       </c>
       <c r="C11" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.3">
@@ -1657,13 +1663,13 @@
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="B13" t="s">
         <v>2</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
     </row>
   </sheetData>
@@ -1676,8 +1682,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:H76"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A35" workbookViewId="0">
-      <selection activeCell="B42" sqref="B42"/>
+    <sheetView topLeftCell="D1" workbookViewId="0">
+      <selection activeCell="F7" sqref="F7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.2" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -1704,7 +1710,7 @@
         <v>16</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
     </row>
     <row r="2" spans="1:5" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
@@ -1720,6 +1726,9 @@
       <c r="D2" s="3" t="s">
         <v>23</v>
       </c>
+      <c r="E2" s="3" t="s">
+        <v>303</v>
+      </c>
     </row>
     <row r="3" spans="1:5" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="3" t="s">
@@ -1735,7 +1744,7 @@
         <v>25</v>
       </c>
       <c r="E3" s="5" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
     </row>
     <row r="4" spans="1:5" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
@@ -1743,7 +1752,7 @@
         <v>18</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="C4" s="4" t="s">
         <v>26</v>
@@ -1752,7 +1761,7 @@
         <v>25</v>
       </c>
       <c r="E4" s="5" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
     </row>
     <row r="5" spans="1:5" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
@@ -1760,7 +1769,7 @@
         <v>18</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="C5" s="4" t="s">
         <v>27</v>
@@ -1769,7 +1778,7 @@
         <v>25</v>
       </c>
       <c r="E5" s="5" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
     </row>
     <row r="6" spans="1:5" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
@@ -1777,7 +1786,7 @@
         <v>18</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="C6" s="4" t="s">
         <v>30</v>
@@ -1786,7 +1795,7 @@
         <v>25</v>
       </c>
       <c r="E6" s="5" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
     </row>
     <row r="7" spans="1:5" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
@@ -1803,7 +1812,7 @@
         <v>25</v>
       </c>
       <c r="E7" s="5" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
     </row>
     <row r="8" spans="1:5" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
@@ -1820,7 +1829,7 @@
         <v>25</v>
       </c>
       <c r="E8" s="5" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
     </row>
     <row r="9" spans="1:5" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
@@ -1828,7 +1837,7 @@
         <v>18</v>
       </c>
       <c r="B9" s="3" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="C9" s="3" t="s">
         <v>31</v>
@@ -1837,7 +1846,7 @@
         <v>32</v>
       </c>
       <c r="E9" s="5" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
     </row>
     <row r="10" spans="1:5" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
@@ -1845,7 +1854,7 @@
         <v>18</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="C10" s="3" t="s">
         <v>33</v>
@@ -1854,7 +1863,7 @@
         <v>32</v>
       </c>
       <c r="E10" s="5" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
     </row>
     <row r="11" spans="1:5" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
@@ -1862,16 +1871,16 @@
         <v>18</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="C11" s="3" t="s">
         <v>34</v>
       </c>
       <c r="D11" s="3" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="E11" s="5" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
     </row>
     <row r="12" spans="1:5" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
@@ -1879,7 +1888,7 @@
         <v>18</v>
       </c>
       <c r="B12" s="3" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="C12" s="3" t="s">
         <v>37</v>
@@ -1888,7 +1897,7 @@
         <v>32</v>
       </c>
       <c r="E12" s="5" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
     </row>
     <row r="13" spans="1:5" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
@@ -1896,7 +1905,7 @@
         <v>18</v>
       </c>
       <c r="B13" s="3" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="C13" s="3" t="s">
         <v>38</v>
@@ -1905,7 +1914,7 @@
         <v>46</v>
       </c>
       <c r="E13" s="5" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
     </row>
     <row r="14" spans="1:5" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
@@ -1913,7 +1922,7 @@
         <v>18</v>
       </c>
       <c r="B14" s="3" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="C14" s="3" t="s">
         <v>39</v>
@@ -1922,7 +1931,7 @@
         <v>40</v>
       </c>
       <c r="E14" s="5" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
     </row>
     <row r="15" spans="1:5" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
@@ -1930,7 +1939,7 @@
         <v>18</v>
       </c>
       <c r="B15" s="3" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="C15" s="3" t="s">
         <v>41</v>
@@ -1939,7 +1948,7 @@
         <v>40</v>
       </c>
       <c r="E15" s="5" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
     </row>
     <row r="16" spans="1:5" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
@@ -1947,7 +1956,7 @@
         <v>18</v>
       </c>
       <c r="B16" s="3" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="C16" s="3" t="s">
         <v>42</v>
@@ -1956,7 +1965,7 @@
         <v>40</v>
       </c>
       <c r="E16" s="5" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
     </row>
     <row r="17" spans="1:5" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
@@ -1964,7 +1973,7 @@
         <v>18</v>
       </c>
       <c r="B17" s="3" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="C17" s="3" t="s">
         <v>43</v>
@@ -1973,7 +1982,7 @@
         <v>40</v>
       </c>
       <c r="E17" s="5" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
     </row>
     <row r="18" spans="1:5" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
@@ -1981,7 +1990,7 @@
         <v>18</v>
       </c>
       <c r="B18" s="3" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="C18" s="3" t="s">
         <v>44</v>
@@ -1990,7 +1999,7 @@
         <v>45</v>
       </c>
       <c r="E18" s="5" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
     </row>
     <row r="19" spans="1:5" ht="19.2" customHeight="1" x14ac:dyDescent="0.3">
@@ -1998,7 +2007,7 @@
         <v>47</v>
       </c>
       <c r="B19" s="3" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="C19" s="6" t="s">
         <v>35</v>
@@ -2007,7 +2016,7 @@
         <v>36</v>
       </c>
       <c r="E19" s="5" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
     </row>
     <row r="20" spans="1:5" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
@@ -2015,16 +2024,16 @@
         <v>18</v>
       </c>
       <c r="B20" s="3" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="C20" s="12" t="s">
-        <v>299</v>
+        <v>297</v>
       </c>
       <c r="D20" s="5" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="E20" s="3" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
     </row>
     <row r="21" spans="1:5" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
@@ -2032,16 +2041,16 @@
         <v>18</v>
       </c>
       <c r="B21" s="3" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="C21" s="12" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="D21" s="5" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="E21" s="5" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
     </row>
     <row r="22" spans="1:5" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
@@ -2049,16 +2058,16 @@
         <v>47</v>
       </c>
       <c r="B22" s="3" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="C22" s="12" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="D22" s="5" t="s">
+        <v>108</v>
+      </c>
+      <c r="E22" s="5" t="s">
         <v>110</v>
-      </c>
-      <c r="E22" s="5" t="s">
-        <v>112</v>
       </c>
     </row>
     <row r="23" spans="1:5" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
@@ -2066,16 +2075,16 @@
         <v>18</v>
       </c>
       <c r="B23" s="5" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="C23" s="12" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="D23" s="5" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="E23" s="5" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
     </row>
     <row r="24" spans="1:5" ht="16.2" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
@@ -2083,16 +2092,16 @@
         <v>47</v>
       </c>
       <c r="B24" s="5" t="s">
+        <v>130</v>
+      </c>
+      <c r="C24" s="12" t="s">
         <v>132</v>
       </c>
-      <c r="C24" s="12" t="s">
-        <v>134</v>
-      </c>
       <c r="D24" s="5" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="E24" s="5" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
     </row>
     <row r="25" spans="1:5" ht="16.2" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
@@ -2100,16 +2109,16 @@
         <v>18</v>
       </c>
       <c r="B25" s="5" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="C25" s="12" t="s">
+        <v>136</v>
+      </c>
+      <c r="D25" s="7" t="s">
+        <v>137</v>
+      </c>
+      <c r="E25" s="5" t="s">
         <v>138</v>
-      </c>
-      <c r="D25" s="7" t="s">
-        <v>139</v>
-      </c>
-      <c r="E25" s="5" t="s">
-        <v>140</v>
       </c>
     </row>
     <row r="26" spans="1:5" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
@@ -2117,16 +2126,16 @@
         <v>18</v>
       </c>
       <c r="B26" s="5" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="C26" s="12" t="s">
+        <v>140</v>
+      </c>
+      <c r="D26" s="5" t="s">
+        <v>141</v>
+      </c>
+      <c r="E26" s="5" t="s">
         <v>142</v>
-      </c>
-      <c r="D26" s="5" t="s">
-        <v>143</v>
-      </c>
-      <c r="E26" s="5" t="s">
-        <v>144</v>
       </c>
     </row>
     <row r="27" spans="1:5" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
@@ -2134,16 +2143,16 @@
         <v>18</v>
       </c>
       <c r="B27" s="5" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="C27" s="12" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="D27" s="5" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="E27" s="5" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
     </row>
     <row r="28" spans="1:5" ht="16.2" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
@@ -2151,16 +2160,16 @@
         <v>18</v>
       </c>
       <c r="B28" s="5" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="C28" s="12" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="D28" s="5" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="E28" s="5" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
     </row>
     <row r="29" spans="1:5" ht="16.2" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
@@ -2168,16 +2177,16 @@
         <v>18</v>
       </c>
       <c r="B29" s="3" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="C29" s="12" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="D29" s="7" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="E29" s="5" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
     </row>
     <row r="30" spans="1:5" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
@@ -2185,16 +2194,16 @@
         <v>18</v>
       </c>
       <c r="B30" s="5" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="C30" s="12" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="D30" s="5" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="E30" s="5" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
     </row>
     <row r="31" spans="1:5" ht="16.2" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
@@ -2202,16 +2211,16 @@
         <v>18</v>
       </c>
       <c r="B31" s="5" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="C31" s="12" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="D31" s="5" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="E31" s="5" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
     </row>
     <row r="32" spans="1:5" ht="16.2" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
@@ -2219,16 +2228,16 @@
         <v>18</v>
       </c>
       <c r="B32" s="5" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="C32" s="12" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="D32" s="7" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="E32" s="5" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
     </row>
     <row r="33" spans="1:8" ht="16.2" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
@@ -2236,16 +2245,16 @@
         <v>47</v>
       </c>
       <c r="B33" s="8" t="s">
-        <v>295</v>
+        <v>293</v>
       </c>
       <c r="C33" s="12" t="s">
-        <v>293</v>
+        <v>291</v>
       </c>
       <c r="D33" s="9" t="s">
         <v>25</v>
       </c>
       <c r="E33" s="10" t="s">
-        <v>294</v>
+        <v>292</v>
       </c>
       <c r="F33" s="10"/>
       <c r="G33" s="10"/>
@@ -2255,35 +2264,35 @@
         <v>47</v>
       </c>
       <c r="B34" s="8" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="C34" s="12" t="s">
-        <v>296</v>
+        <v>294</v>
       </c>
       <c r="D34" s="9" t="s">
-        <v>297</v>
+        <v>295</v>
       </c>
       <c r="E34" s="9" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="F34" s="10"/>
       <c r="G34" s="10"/>
     </row>
     <row r="35" spans="1:8" ht="16.2" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A35" s="8" t="s">
+        <v>162</v>
+      </c>
+      <c r="B35" s="5" t="s">
+        <v>165</v>
+      </c>
+      <c r="C35" s="12" t="s">
+        <v>163</v>
+      </c>
+      <c r="D35" s="7" t="s">
+        <v>137</v>
+      </c>
+      <c r="E35" s="5" t="s">
         <v>164</v>
-      </c>
-      <c r="B35" s="5" t="s">
-        <v>167</v>
-      </c>
-      <c r="C35" s="12" t="s">
-        <v>165</v>
-      </c>
-      <c r="D35" s="7" t="s">
-        <v>139</v>
-      </c>
-      <c r="E35" s="5" t="s">
-        <v>166</v>
       </c>
       <c r="F35" s="10"/>
       <c r="G35" s="10"/>
@@ -2291,19 +2300,19 @@
     </row>
     <row r="36" spans="1:8" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A36" s="8" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="B36" s="5" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="C36" s="8" t="s">
+        <v>166</v>
+      </c>
+      <c r="D36" s="5" t="s">
         <v>168</v>
       </c>
-      <c r="D36" s="5" t="s">
-        <v>170</v>
-      </c>
       <c r="E36" s="5" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="F36" s="10"/>
       <c r="G36" s="10"/>
@@ -2311,19 +2320,19 @@
     </row>
     <row r="37" spans="1:8" ht="16.2" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A37" s="8" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="B37" s="5" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="C37" s="12" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="D37" s="5" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="E37" s="5" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="F37" s="10"/>
       <c r="G37" s="10"/>
@@ -2331,19 +2340,19 @@
     </row>
     <row r="38" spans="1:8" ht="16.2" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A38" s="8" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="B38" s="5" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="C38" s="8" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="D38" s="7" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="E38" s="8" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="F38" s="10"/>
       <c r="G38" s="10"/>
@@ -2351,648 +2360,648 @@
     </row>
     <row r="39" spans="1:8" ht="16.2" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A39" s="8" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="B39" s="5" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="C39" s="8" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="D39" s="7" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="E39" s="5" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
     </row>
     <row r="40" spans="1:8" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A40" s="8" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="B40" s="5" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="C40" s="12" t="s">
+        <v>179</v>
+      </c>
+      <c r="D40" s="5" t="s">
+        <v>180</v>
+      </c>
+      <c r="E40" s="5" t="s">
         <v>181</v>
-      </c>
-      <c r="D40" s="5" t="s">
-        <v>182</v>
-      </c>
-      <c r="E40" s="5" t="s">
-        <v>183</v>
       </c>
     </row>
     <row r="41" spans="1:8" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A41" s="3" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="B41" s="5" t="s">
-        <v>304</v>
+        <v>302</v>
       </c>
       <c r="C41" s="12" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="D41" s="5" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="E41" s="5" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
     </row>
     <row r="42" spans="1:8" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A42" s="3" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="B42" s="5" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="C42" s="8" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="D42" s="5" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="E42" s="5" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
     </row>
     <row r="43" spans="1:8" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A43" s="3" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="B43" s="5" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="C43" s="5" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="D43" s="5" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="E43" s="10" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
     </row>
     <row r="44" spans="1:8" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A44" s="3" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="B44" s="5" t="s">
-        <v>302</v>
+        <v>300</v>
       </c>
       <c r="C44" s="12" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="D44" s="5" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="E44" s="5" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
     </row>
     <row r="45" spans="1:8" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A45" s="3" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="B45" s="5" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="C45" s="12" t="s">
+        <v>190</v>
+      </c>
+      <c r="D45" s="5" t="s">
+        <v>191</v>
+      </c>
+      <c r="E45" s="5" t="s">
         <v>192</v>
-      </c>
-      <c r="D45" s="5" t="s">
-        <v>193</v>
-      </c>
-      <c r="E45" s="5" t="s">
-        <v>194</v>
       </c>
     </row>
     <row r="46" spans="1:8" ht="16.2" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A46" s="3" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="B46" s="5" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="C46" s="12" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="D46" s="5" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="E46" s="5" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
     </row>
     <row r="47" spans="1:8" ht="16.2" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A47" s="3" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="B47" s="5" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="C47" s="12" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="D47" s="7" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="E47" s="5" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
     </row>
     <row r="48" spans="1:8" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A48" s="3" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="B48" s="5" t="s">
+        <v>200</v>
+      </c>
+      <c r="C48" s="12" t="s">
+        <v>201</v>
+      </c>
+      <c r="D48" s="5" t="s">
+        <v>203</v>
+      </c>
+      <c r="E48" s="5" t="s">
         <v>202</v>
-      </c>
-      <c r="C48" s="12" t="s">
-        <v>203</v>
-      </c>
-      <c r="D48" s="5" t="s">
-        <v>205</v>
-      </c>
-      <c r="E48" s="5" t="s">
-        <v>204</v>
       </c>
     </row>
     <row r="49" spans="1:5" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A49" s="3" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="B49" s="5" t="s">
-        <v>300</v>
+        <v>298</v>
       </c>
       <c r="C49" s="12" t="s">
+        <v>204</v>
+      </c>
+      <c r="D49" s="5" t="s">
+        <v>205</v>
+      </c>
+      <c r="E49" s="5" t="s">
         <v>206</v>
-      </c>
-      <c r="D49" s="5" t="s">
-        <v>207</v>
-      </c>
-      <c r="E49" s="5" t="s">
-        <v>208</v>
       </c>
     </row>
     <row r="50" spans="1:5" ht="16.2" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A50" s="3" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="B50" s="5" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="C50" s="8" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="D50" s="5" t="s">
         <v>32</v>
       </c>
       <c r="E50" s="5" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
     </row>
     <row r="51" spans="1:5" ht="16.2" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A51" s="3" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="B51" s="5" t="s">
-        <v>301</v>
+        <v>299</v>
       </c>
       <c r="C51" s="12" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="D51" s="7" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="E51" s="5" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
     </row>
     <row r="52" spans="1:5" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A52" s="3" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="B52" s="5" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="C52" s="12" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="D52" s="5" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="E52" s="5" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
     </row>
     <row r="53" spans="1:5" s="10" customFormat="1" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A53" s="10" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="B53" s="5" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="C53" s="12" t="s">
+        <v>218</v>
+      </c>
+      <c r="D53" s="5" t="s">
+        <v>103</v>
+      </c>
+      <c r="E53" s="5" t="s">
         <v>220</v>
-      </c>
-      <c r="D53" s="5" t="s">
-        <v>105</v>
-      </c>
-      <c r="E53" s="5" t="s">
-        <v>222</v>
       </c>
     </row>
     <row r="54" spans="1:5" s="10" customFormat="1" ht="16.2" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A54" s="10" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="B54" s="5" t="s">
-        <v>303</v>
+        <v>301</v>
       </c>
       <c r="C54" s="12" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
       <c r="D54" s="5" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="E54" s="5" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
     </row>
     <row r="55" spans="1:5" s="10" customFormat="1" ht="16.2" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A55" s="10" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="B55" s="5" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="C55" s="12" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="D55" s="7" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="E55" s="5" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
     </row>
     <row r="56" spans="1:5" ht="16.2" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A56" s="3" t="s">
+        <v>226</v>
+      </c>
+      <c r="B56" s="5" t="s">
+        <v>227</v>
+      </c>
+      <c r="C56" s="11" t="s">
         <v>228</v>
       </c>
-      <c r="B56" s="5" t="s">
+      <c r="D56" s="5" t="s">
+        <v>103</v>
+      </c>
+      <c r="E56" s="5" t="s">
         <v>229</v>
-      </c>
-      <c r="C56" s="11" t="s">
-        <v>230</v>
-      </c>
-      <c r="D56" s="5" t="s">
-        <v>105</v>
-      </c>
-      <c r="E56" s="5" t="s">
-        <v>231</v>
       </c>
     </row>
     <row r="57" spans="1:5" ht="16.2" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A57" s="3" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="B57" s="5" t="s">
+        <v>230</v>
+      </c>
+      <c r="C57" s="12" t="s">
+        <v>231</v>
+      </c>
+      <c r="D57" s="7" t="s">
+        <v>137</v>
+      </c>
+      <c r="E57" s="5" t="s">
         <v>232</v>
-      </c>
-      <c r="C57" s="12" t="s">
-        <v>233</v>
-      </c>
-      <c r="D57" s="7" t="s">
-        <v>139</v>
-      </c>
-      <c r="E57" s="5" t="s">
-        <v>234</v>
       </c>
     </row>
     <row r="58" spans="1:5" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A58" s="3" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="B58" s="5" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="C58" s="8" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="D58" s="5" t="s">
         <v>25</v>
       </c>
       <c r="E58" s="5" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
     </row>
     <row r="59" spans="1:5" ht="16.2" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A59" s="3" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="B59" s="5" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
       <c r="C59" s="12" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="D59" s="5" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="E59" s="5" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
     </row>
     <row r="60" spans="1:5" ht="16.2" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A60" s="3" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="B60" s="5" t="s">
+        <v>239</v>
+      </c>
+      <c r="C60" s="12" t="s">
+        <v>240</v>
+      </c>
+      <c r="D60" s="7" t="s">
+        <v>137</v>
+      </c>
+      <c r="E60" s="5" t="s">
         <v>241</v>
-      </c>
-      <c r="C60" s="12" t="s">
-        <v>242</v>
-      </c>
-      <c r="D60" s="7" t="s">
-        <v>139</v>
-      </c>
-      <c r="E60" s="5" t="s">
-        <v>243</v>
       </c>
     </row>
     <row r="61" spans="1:5" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A61" s="3" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="B61" s="5" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="C61" s="8" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
       <c r="D61" s="5" t="s">
         <v>25</v>
       </c>
       <c r="E61" s="5" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
     </row>
     <row r="62" spans="1:5" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A62" s="3" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="B62" s="5" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="C62" s="8" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="D62" s="5" t="s">
         <v>25</v>
       </c>
       <c r="E62" s="5" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
     </row>
     <row r="63" spans="1:5" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A63" s="3" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="B63" s="5" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="C63" s="12" t="s">
+        <v>247</v>
+      </c>
+      <c r="D63" s="5" t="s">
         <v>249</v>
       </c>
-      <c r="D63" s="5" t="s">
-        <v>251</v>
-      </c>
       <c r="E63" s="5" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
     </row>
     <row r="64" spans="1:5" ht="16.2" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A64" s="3" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="B64" s="5" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
       <c r="C64" s="12" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
       <c r="D64" s="5" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="E64" s="5" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
     </row>
     <row r="65" spans="1:5" ht="16.2" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A65" s="3" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="B65" s="5" t="s">
+        <v>254</v>
+      </c>
+      <c r="C65" s="12" t="s">
+        <v>255</v>
+      </c>
+      <c r="D65" s="7" t="s">
+        <v>137</v>
+      </c>
+      <c r="E65" s="5" t="s">
         <v>256</v>
-      </c>
-      <c r="C65" s="12" t="s">
-        <v>257</v>
-      </c>
-      <c r="D65" s="7" t="s">
-        <v>139</v>
-      </c>
-      <c r="E65" s="5" t="s">
-        <v>258</v>
       </c>
     </row>
     <row r="66" spans="1:5" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A66" s="3" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="B66" s="5" t="s">
+        <v>257</v>
+      </c>
+      <c r="C66" s="12" t="s">
         <v>259</v>
       </c>
-      <c r="C66" s="12" t="s">
-        <v>261</v>
-      </c>
       <c r="D66" s="5" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="E66" s="5" t="s">
-        <v>260</v>
+        <v>258</v>
       </c>
     </row>
     <row r="67" spans="1:5" ht="16.2" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A67" s="3" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="B67" s="5" t="s">
+        <v>260</v>
+      </c>
+      <c r="C67" s="12" t="s">
+        <v>261</v>
+      </c>
+      <c r="D67" s="5" t="s">
+        <v>103</v>
+      </c>
+      <c r="E67" s="5" t="s">
         <v>262</v>
-      </c>
-      <c r="C67" s="12" t="s">
-        <v>263</v>
-      </c>
-      <c r="D67" s="5" t="s">
-        <v>105</v>
-      </c>
-      <c r="E67" s="5" t="s">
-        <v>264</v>
       </c>
     </row>
     <row r="68" spans="1:5" ht="16.2" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A68" s="3" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="B68" s="5" t="s">
+        <v>263</v>
+      </c>
+      <c r="C68" s="12" t="s">
+        <v>264</v>
+      </c>
+      <c r="D68" s="7" t="s">
+        <v>137</v>
+      </c>
+      <c r="E68" s="5" t="s">
         <v>265</v>
-      </c>
-      <c r="C68" s="12" t="s">
-        <v>266</v>
-      </c>
-      <c r="D68" s="7" t="s">
-        <v>139</v>
-      </c>
-      <c r="E68" s="5" t="s">
-        <v>267</v>
       </c>
     </row>
     <row r="69" spans="1:5" ht="16.2" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A69" s="3" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="B69" s="5" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="C69" s="12" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="D69" s="7" t="s">
-        <v>269</v>
+        <v>267</v>
       </c>
       <c r="E69" s="5" t="s">
-        <v>272</v>
+        <v>270</v>
       </c>
     </row>
     <row r="70" spans="1:5" ht="16.2" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A70" s="3" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="B70" s="5" t="s">
+        <v>266</v>
+      </c>
+      <c r="C70" s="12" t="s">
         <v>268</v>
       </c>
-      <c r="C70" s="12" t="s">
-        <v>270</v>
-      </c>
       <c r="D70" s="7" t="s">
+        <v>269</v>
+      </c>
+      <c r="E70" s="5" t="s">
         <v>271</v>
-      </c>
-      <c r="E70" s="5" t="s">
-        <v>273</v>
       </c>
     </row>
     <row r="71" spans="1:5" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A71" s="3" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="B71" s="5" t="s">
-        <v>275</v>
+        <v>273</v>
       </c>
       <c r="C71" s="8" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
       <c r="D71" s="5" t="s">
         <v>25</v>
       </c>
       <c r="E71" s="5" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
     </row>
     <row r="72" spans="1:5" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A72" s="3" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="B72" s="5" t="s">
+        <v>275</v>
+      </c>
+      <c r="C72" s="12" t="s">
+        <v>276</v>
+      </c>
+      <c r="D72" s="5" t="s">
+        <v>191</v>
+      </c>
+      <c r="E72" s="5" t="s">
         <v>277</v>
-      </c>
-      <c r="C72" s="12" t="s">
-        <v>278</v>
-      </c>
-      <c r="D72" s="5" t="s">
-        <v>193</v>
-      </c>
-      <c r="E72" s="5" t="s">
-        <v>279</v>
       </c>
     </row>
     <row r="73" spans="1:5" ht="16.2" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A73" s="3" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="B73" s="5" t="s">
+        <v>278</v>
+      </c>
+      <c r="C73" s="12" t="s">
         <v>280</v>
       </c>
-      <c r="C73" s="12" t="s">
-        <v>282</v>
-      </c>
       <c r="D73" s="5" t="s">
-        <v>283</v>
+        <v>281</v>
       </c>
       <c r="E73" s="5" t="s">
-        <v>281</v>
+        <v>279</v>
       </c>
     </row>
     <row r="74" spans="1:5" ht="16.2" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A74" s="3" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="B74" s="5" t="s">
+        <v>282</v>
+      </c>
+      <c r="C74" s="12" t="s">
+        <v>283</v>
+      </c>
+      <c r="D74" s="7" t="s">
         <v>284</v>
       </c>
-      <c r="C74" s="12" t="s">
+      <c r="E74" s="5" t="s">
         <v>285</v>
-      </c>
-      <c r="D74" s="7" t="s">
-        <v>286</v>
-      </c>
-      <c r="E74" s="5" t="s">
-        <v>287</v>
       </c>
     </row>
     <row r="75" spans="1:5" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A75" s="3" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="B75" s="5" t="s">
-        <v>290</v>
+        <v>288</v>
       </c>
       <c r="C75" s="12" t="s">
-        <v>288</v>
+        <v>286</v>
       </c>
       <c r="D75" s="5" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="E75" s="5" t="s">
-        <v>289</v>
+        <v>287</v>
       </c>
     </row>
     <row r="76" spans="1:5" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A76" s="3" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="B76" s="5" t="s">
-        <v>291</v>
+        <v>289</v>
       </c>
       <c r="C76" s="8" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
       <c r="D76" s="5" t="s">
         <v>25</v>
       </c>
       <c r="E76" s="5" t="s">
-        <v>292</v>
+        <v>290</v>
       </c>
     </row>
   </sheetData>
@@ -3047,15 +3056,15 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
   <dimension ref="A1:G6"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F20" sqref="F20"/>
+    <sheetView tabSelected="1" topLeftCell="F1" workbookViewId="0">
+      <selection activeCell="F6" sqref="F6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="24.6640625" customWidth="1"/>
     <col min="2" max="2" width="16.21875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="33.109375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="32.6640625" customWidth="1"/>
     <col min="6" max="6" width="71.33203125" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="11.77734375" bestFit="1" customWidth="1"/>
   </cols>
@@ -3080,7 +3089,7 @@
         <v>62</v>
       </c>
       <c r="G1" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.3">
@@ -3123,7 +3132,7 @@
         <v>14</v>
       </c>
       <c r="F3" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="G3" t="s">
         <v>13</v>
@@ -3146,7 +3155,7 @@
         <v>78</v>
       </c>
       <c r="F4" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="G4" t="s">
         <v>15</v>
@@ -3169,7 +3178,7 @@
         <v>78</v>
       </c>
       <c r="F5" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="G5" t="s">
         <v>15</v>
@@ -3177,7 +3186,7 @@
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="B6" t="s">
         <v>51</v>
@@ -3189,10 +3198,10 @@
         <v>49</v>
       </c>
       <c r="E6" t="s">
-        <v>79</v>
+        <v>304</v>
       </c>
       <c r="F6" t="s">
-        <v>85</v>
+        <v>305</v>
       </c>
       <c r="G6" t="s">
         <v>15</v>
